--- a/01-Eccentric_Mechanism/Calculations/Fittings-calc.xlsx
+++ b/01-Eccentric_Mechanism/Calculations/Fittings-calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Esercizi Libro Quotatura funzionale degli organi di macchine\2-Eccentric_Mechanism\Calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Training-Functional-dimensioning\Training-Functional-dimensioning-of-machine-elements-\01-Eccentric_Mechanism\Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5117306F-0BA1-4DED-A183-97FC0F0C3D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC3AB53-A209-498A-8D5D-8F46CCF37641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B27A7284-1C2B-40BC-84AE-5D6163E3F5FF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="294">
   <si>
     <t>mm</t>
   </si>
@@ -1016,9 +1016,6 @@
     <t>LMC</t>
   </si>
   <si>
-    <t>FIT NON COMPATIBLE</t>
-  </si>
-  <si>
     <t>SLIDING-TRACK</t>
   </si>
   <si>
@@ -1035,7 +1032,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,17 +1148,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1201,12 +1189,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,7 +1864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2059,30 +2041,44 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2107,9 +2103,84 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2119,80 +2190,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2200,84 +2232,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2614,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DB5FFE-C6EF-44B6-B555-5C9F95E3DC1E}">
   <dimension ref="C1:AC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,16 +2594,16 @@
   <sheetData>
     <row r="1" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="J2" s="79" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="J2" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="79"/>
+      <c r="K2" s="84"/>
       <c r="L2" s="2" t="s">
         <v>262</v>
       </c>
@@ -2652,32 +2621,32 @@
       </c>
     </row>
     <row r="3" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="5" spans="3:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R5" s="74" t="s">
+      <c r="R5" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
     </row>
     <row r="6" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="77"/>
+      <c r="D6" s="78"/>
     </row>
     <row r="7" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="81" t="s">
         <v>259</v>
       </c>
-      <c r="E7" s="76"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
@@ -2690,8 +2659,8 @@
       <c r="R7" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="S7" s="75"/>
-      <c r="T7" s="76"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="82"/>
       <c r="U7" s="55"/>
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
@@ -2714,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="58"/>
-      <c r="R8" s="72" t="s">
+      <c r="R8" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="S8" s="73"/>
+      <c r="S8" s="77"/>
       <c r="T8" s="66"/>
       <c r="U8" s="53" t="s">
         <v>0</v>
@@ -3104,7 +3073,7 @@
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
-      <c r="F22" s="136">
+      <c r="F22" s="72">
         <f>H19-H18</f>
         <v>0.44999999998296403</v>
       </c>
@@ -3112,11 +3081,11 @@
         <v>0</v>
       </c>
       <c r="N22" s="58"/>
-      <c r="R22" s="72" t="s">
+      <c r="R22" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
       <c r="U22" s="1"/>
       <c r="V22" s="53" t="s">
         <v>0</v>
@@ -3136,31 +3105,24 @@
       <c r="L23" s="64"/>
       <c r="M23" s="64"/>
       <c r="N23" s="65"/>
-      <c r="R23" s="72" t="s">
+      <c r="R23" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="142"/>
-      <c r="V23" s="143" t="s">
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="V23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W23" s="142"/>
-      <c r="X23" s="142"/>
-      <c r="Y23" s="142"/>
-      <c r="Z23" s="142"/>
-      <c r="AA23" s="142"/>
-      <c r="AB23" s="142"/>
       <c r="AC23" s="58"/>
     </row>
     <row r="24" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R24" s="140" t="s">
+      <c r="R24" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="S24" s="141"/>
-      <c r="T24" s="141"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
       <c r="U24" s="64"/>
-      <c r="V24" s="139" t="s">
+      <c r="V24" s="74" t="s">
         <v>0</v>
       </c>
       <c r="W24" s="64"/>
@@ -3180,10 +3142,10 @@
       <c r="C28" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="E28" s="76"/>
+      <c r="E28" s="82"/>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
       <c r="H28" s="55"/>
@@ -3195,10 +3157,10 @@
       <c r="N28" s="56"/>
     </row>
     <row r="29" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="D29" s="73"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="66">
         <v>15</v>
       </c>
@@ -3360,7 +3322,7 @@
       <c r="D39" s="52"/>
       <c r="E39" s="52"/>
       <c r="F39" s="52"/>
-      <c r="G39" s="137">
+      <c r="G39" s="73">
         <f>(M32-M35)*10000</f>
         <v>-9.0000000003698233E-2</v>
       </c>
@@ -3376,7 +3338,7 @@
       <c r="D40" s="52"/>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
-      <c r="G40" s="137">
+      <c r="G40" s="73">
         <f>(M31-M36)*10000</f>
         <v>-0.18000000000739647</v>
       </c>
@@ -3394,52 +3356,40 @@
       <c r="N42" s="58"/>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="144" t="s">
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H43" s="144"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="142"/>
+      <c r="H43" s="53"/>
       <c r="N43" s="58"/>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="143" t="s">
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="G44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
-      <c r="K44" s="142"/>
-      <c r="L44" s="142"/>
-      <c r="M44" s="142"/>
       <c r="N44" s="58"/>
     </row>
     <row r="45" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="140" t="s">
+      <c r="C45" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="146">
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="75">
         <f>ABS(G40)-ABS(G39)</f>
         <v>9.0000000003698233E-2</v>
       </c>
-      <c r="G45" s="139" t="s">
+      <c r="G45" s="74" t="s">
         <v>0</v>
       </c>
       <c r="H45" s="64"/>
@@ -3459,10 +3409,10 @@
       <c r="C50" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="D50" s="75" t="s">
+      <c r="D50" s="81" t="s">
         <v>280</v>
       </c>
-      <c r="E50" s="76"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="55"/>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
@@ -3474,10 +3424,10 @@
       <c r="N50" s="56"/>
     </row>
     <row r="51" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="66">
         <v>9</v>
       </c>
@@ -3656,7 +3606,7 @@
       <c r="G61" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="H61" s="137">
+      <c r="H61" s="73">
         <f>(N54-N57)*10000</f>
         <v>4.9999999998107114E-2</v>
       </c>
@@ -3675,7 +3625,7 @@
       <c r="G62" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="H62" s="137">
+      <c r="H62" s="73">
         <f>(N53-N58)*10000</f>
         <v>0.41999999998765247</v>
       </c>
@@ -3698,7 +3648,7 @@
       </c>
       <c r="D65" s="52"/>
       <c r="E65" s="52"/>
-      <c r="F65" s="136">
+      <c r="F65" s="72">
         <f>H62-H61</f>
         <v>0.36999999998954536</v>
       </c>
@@ -3730,10 +3680,10 @@
       <c r="C71" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="D71" s="75" t="s">
+      <c r="D71" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="76"/>
+      <c r="E71" s="82"/>
       <c r="F71" s="55"/>
       <c r="G71" s="55"/>
       <c r="H71" s="55"/>
@@ -3745,10 +3695,10 @@
       <c r="N71" s="56"/>
     </row>
     <row r="72" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="72" t="s">
+      <c r="C72" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="D72" s="73"/>
+      <c r="D72" s="77"/>
       <c r="E72" s="66">
         <v>60</v>
       </c>
@@ -3927,7 +3877,7 @@
       <c r="G82" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="H82" s="137">
+      <c r="H82" s="73">
         <f>(N75-N78)*10000</f>
         <v>0.10000000003174137</v>
       </c>
@@ -3949,7 +3899,7 @@
       <c r="G83" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="H83" s="137">
+      <c r="H83" s="73">
         <f>(N74-N79)*10000</f>
         <v>0.85999999996033694</v>
       </c>
@@ -3970,54 +3920,39 @@
       <c r="N85" s="58"/>
     </row>
     <row r="86" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C86" s="72" t="s">
+      <c r="C86" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="138"/>
-      <c r="E86" s="138"/>
-      <c r="F86" s="143">
-        <f>H82-H83</f>
-        <v>-0.75999999992859557</v>
-      </c>
-      <c r="G86" s="144" t="s">
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="1">
+        <f>H83-H82</f>
+        <v>0.75999999992859557</v>
+      </c>
+      <c r="G86" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H86" s="142"/>
-      <c r="I86" s="145" t="s">
-        <v>290</v>
-      </c>
-      <c r="J86" s="145"/>
-      <c r="K86" s="145"/>
-      <c r="L86" s="142"/>
-      <c r="M86" s="142"/>
-      <c r="N86" s="58"/>
+      <c r="K86" s="58"/>
     </row>
     <row r="87" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C87" s="72" t="s">
+      <c r="C87" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="D87" s="138"/>
-      <c r="E87" s="138"/>
-      <c r="F87" s="142"/>
-      <c r="G87" s="143" t="s">
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="G87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H87" s="142"/>
-      <c r="I87" s="142"/>
-      <c r="J87" s="142"/>
-      <c r="K87" s="142"/>
-      <c r="L87" s="142"/>
-      <c r="M87" s="142"/>
       <c r="N87" s="58"/>
     </row>
     <row r="88" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="140" t="s">
+      <c r="C88" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
       <c r="F88" s="64"/>
-      <c r="G88" s="139" t="s">
+      <c r="G88" s="74" t="s">
         <v>0</v>
       </c>
       <c r="H88" s="64"/>
@@ -4030,17 +3965,17 @@
     </row>
     <row r="92" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="D93" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="E93" s="76"/>
+      <c r="D93" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="E93" s="82"/>
       <c r="F93" s="55"/>
       <c r="G93" s="55"/>
       <c r="H93" s="55"/>
@@ -4052,10 +3987,10 @@
       <c r="N93" s="56"/>
     </row>
     <row r="94" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="72" t="s">
+      <c r="C94" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="D94" s="73"/>
+      <c r="D94" s="77"/>
       <c r="E94" s="66">
         <v>18</v>
       </c>
@@ -4073,7 +4008,7 @@
         <v>252</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>255</v>
@@ -4151,7 +4086,7 @@
         <v>253</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>281</v>
@@ -4234,7 +4169,7 @@
       <c r="G104" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="H104" s="137">
+      <c r="H104" s="73">
         <f>(N97-N100)*10000</f>
         <v>9.9999999996214228E-2</v>
       </c>
@@ -4256,7 +4191,7 @@
       <c r="G105" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="H105" s="137">
+      <c r="H105" s="73">
         <f>(N96-N101)*10000</f>
         <v>0.46000000001100716</v>
       </c>
@@ -4277,54 +4212,39 @@
       <c r="N107" s="58"/>
     </row>
     <row r="108" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C108" s="72" t="s">
+      <c r="C108" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="D108" s="138"/>
-      <c r="E108" s="138"/>
-      <c r="F108" s="143">
-        <f>H104-H105</f>
-        <v>-0.36000000001479293</v>
-      </c>
-      <c r="G108" s="144" t="s">
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="1">
+        <f>H105-H104</f>
+        <v>0.36000000001479293</v>
+      </c>
+      <c r="G108" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H108" s="142"/>
-      <c r="I108" s="145" t="s">
-        <v>290</v>
-      </c>
-      <c r="J108" s="145"/>
-      <c r="K108" s="145"/>
-      <c r="L108" s="142"/>
-      <c r="M108" s="142"/>
-      <c r="N108" s="58"/>
+      <c r="K108" s="58"/>
     </row>
     <row r="109" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C109" s="72" t="s">
+      <c r="C109" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="D109" s="138"/>
-      <c r="E109" s="138"/>
-      <c r="F109" s="142"/>
-      <c r="G109" s="143" t="s">
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="G109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H109" s="142"/>
-      <c r="I109" s="142"/>
-      <c r="J109" s="142"/>
-      <c r="K109" s="142"/>
-      <c r="L109" s="142"/>
-      <c r="M109" s="142"/>
       <c r="N109" s="58"/>
     </row>
     <row r="110" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="140" t="s">
+      <c r="C110" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="141"/>
-      <c r="E110" s="141"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="80"/>
       <c r="F110" s="64"/>
-      <c r="G110" s="139" t="s">
+      <c r="G110" s="74" t="s">
         <v>0</v>
       </c>
       <c r="H110" s="64"/>
@@ -4336,26 +4256,7 @@
       <c r="N110" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="I108:K108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="I86:K86"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="C2:F3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C51:D51"/>
+  <mergeCells count="27">
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="C29:D29"/>
@@ -4366,6 +4267,23 @@
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="R24:T24"/>
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -4389,32 +4307,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="85" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="87"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="93"/>
     </row>
     <row r="2" spans="1:22" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4487,30 +4405,30 @@
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83" t="s">
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="84"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="90"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -5939,72 +5857,72 @@
   <sheetData>
     <row r="3" spans="4:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:48" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F4" s="113" t="s">
+      <c r="F4" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="113"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
     </row>
     <row r="5" spans="4:48" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="s">
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
     </row>
     <row r="6" spans="4:48" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="115" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
       <c r="R6" s="29" t="s">
         <v>14</v>
       </c>
@@ -6026,8 +5944,8 @@
       <c r="X6" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="107"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
       <c r="AB6" s="45" t="s">
         <v>136</v>
       </c>
@@ -6097,29 +6015,29 @@
       <c r="Q7" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="R7" s="116" t="s">
+      <c r="R7" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116" t="s">
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116" t="s">
+      <c r="V7" s="98"/>
+      <c r="W7" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="X7" s="116"/>
+      <c r="X7" s="98"/>
       <c r="Z7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="AA7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AB7" s="101" t="s">
+      <c r="AB7" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="AC7" s="102"/>
+      <c r="AC7" s="118"/>
       <c r="AD7" s="28" t="s">
         <v>162</v>
       </c>
@@ -6218,7 +6136,7 @@
       <c r="P8" s="33">
         <v>0</v>
       </c>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="102" t="s">
         <v>142</v>
       </c>
       <c r="R8" s="32">
@@ -6254,7 +6172,7 @@
       <c r="AC8" s="33">
         <v>-4</v>
       </c>
-      <c r="AD8" s="89" t="s">
+      <c r="AD8" s="120" t="s">
         <v>176</v>
       </c>
       <c r="AE8" s="33">
@@ -6271,7 +6189,7 @@
       <c r="AJ8" s="33"/>
       <c r="AK8" s="33"/>
       <c r="AL8" s="33"/>
-      <c r="AM8" s="108"/>
+      <c r="AM8" s="102"/>
       <c r="AN8" s="32"/>
       <c r="AO8" s="32"/>
       <c r="AP8" s="32"/>
@@ -6322,7 +6240,7 @@
       <c r="P9" s="18">
         <v>0</v>
       </c>
-      <c r="Q9" s="109"/>
+      <c r="Q9" s="103"/>
       <c r="R9" s="35">
         <v>5</v>
       </c>
@@ -6352,7 +6270,7 @@
       <c r="AC9" s="18">
         <v>0</v>
       </c>
-      <c r="AD9" s="90"/>
+      <c r="AD9" s="121"/>
       <c r="AE9" s="18">
         <v>-12</v>
       </c>
@@ -6367,7 +6285,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18"/>
       <c r="AL9" s="18"/>
-      <c r="AM9" s="109"/>
+      <c r="AM9" s="103"/>
       <c r="AN9" s="35"/>
       <c r="AO9" s="35"/>
       <c r="AP9" s="35"/>
@@ -6418,7 +6336,7 @@
       <c r="P10" s="18">
         <v>0</v>
       </c>
-      <c r="Q10" s="109"/>
+      <c r="Q10" s="103"/>
       <c r="R10" s="35">
         <v>5</v>
       </c>
@@ -6449,7 +6367,7 @@
       <c r="AC10" s="18">
         <v>0</v>
       </c>
-      <c r="AD10" s="90"/>
+      <c r="AD10" s="121"/>
       <c r="AE10" s="18">
         <v>-15</v>
       </c>
@@ -6464,7 +6382,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18"/>
       <c r="AL10" s="18"/>
-      <c r="AM10" s="109"/>
+      <c r="AM10" s="103"/>
       <c r="AN10" s="35"/>
       <c r="AO10" s="35"/>
       <c r="AP10" s="35"/>
@@ -6482,40 +6400,40 @@
       <c r="E11" s="35">
         <v>14</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="99">
         <v>290</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="99">
         <v>150</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="99">
         <v>95</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="99">
         <v>70</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="99">
         <v>50</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="99">
         <v>32</v>
       </c>
-      <c r="L11" s="88">
+      <c r="L11" s="99">
         <v>23</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="99">
         <v>16</v>
       </c>
-      <c r="N11" s="88">
+      <c r="N11" s="99">
         <v>10</v>
       </c>
-      <c r="O11" s="88">
+      <c r="O11" s="99">
         <v>6</v>
       </c>
-      <c r="P11" s="112">
+      <c r="P11" s="100">
         <v>0</v>
       </c>
-      <c r="Q11" s="109"/>
+      <c r="Q11" s="103"/>
       <c r="R11" s="105">
         <v>6</v>
       </c>
@@ -6529,10 +6447,10 @@
         <v>144</v>
       </c>
       <c r="V11" s="105"/>
-      <c r="W11" s="111" t="s">
+      <c r="W11" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="103">
+      <c r="X11" s="107">
         <v>-7</v>
       </c>
       <c r="Z11" s="34">
@@ -6542,35 +6460,35 @@
       <c r="AA11" s="35">
         <v>14</v>
       </c>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88">
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99">
         <v>0</v>
       </c>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="88">
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="99">
         <v>-18</v>
       </c>
-      <c r="AF11" s="88">
+      <c r="AF11" s="99">
         <v>-23</v>
       </c>
-      <c r="AG11" s="88">
+      <c r="AG11" s="99">
         <v>-28</v>
       </c>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="88"/>
-      <c r="AK11" s="88"/>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="109"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="103"/>
       <c r="AN11" s="105"/>
       <c r="AO11" s="105"/>
       <c r="AP11" s="105"/>
       <c r="AQ11" s="105"/>
       <c r="AR11" s="105"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="103"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="103"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="106"/>
+      <c r="AV11" s="107"/>
     </row>
     <row r="12" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D12" s="34">
@@ -6579,25 +6497,25 @@
       <c r="E12" s="35">
         <v>18</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="109"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="103"/>
       <c r="R12" s="105"/>
       <c r="S12" s="105"/>
       <c r="T12" s="105"/>
       <c r="U12" s="105"/>
       <c r="V12" s="105"/>
       <c r="W12" s="105"/>
-      <c r="X12" s="103"/>
+      <c r="X12" s="107"/>
       <c r="Z12" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6605,27 +6523,27 @@
       <c r="AA12" s="35">
         <v>18</v>
       </c>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="88"/>
-      <c r="AI12" s="88"/>
-      <c r="AJ12" s="88"/>
-      <c r="AK12" s="88"/>
-      <c r="AL12" s="88"/>
-      <c r="AM12" s="109"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="103"/>
       <c r="AN12" s="105"/>
       <c r="AO12" s="105"/>
       <c r="AP12" s="105"/>
       <c r="AQ12" s="105"/>
       <c r="AR12" s="105"/>
       <c r="AS12" s="105"/>
-      <c r="AT12" s="103"/>
+      <c r="AT12" s="107"/>
       <c r="AU12" s="105"/>
-      <c r="AV12" s="103"/>
+      <c r="AV12" s="107"/>
     </row>
     <row r="13" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D13" s="34">
@@ -6634,40 +6552,40 @@
       <c r="E13" s="35">
         <v>24</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="99">
         <v>300</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="99">
         <v>160</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="99">
         <v>110</v>
       </c>
-      <c r="I13" s="88">
+      <c r="I13" s="99">
         <v>85</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="99">
         <v>65</v>
       </c>
-      <c r="K13" s="88">
+      <c r="K13" s="99">
         <v>40</v>
       </c>
-      <c r="L13" s="88">
+      <c r="L13" s="99">
         <v>28</v>
       </c>
-      <c r="M13" s="88">
+      <c r="M13" s="99">
         <v>20</v>
       </c>
-      <c r="N13" s="88">
+      <c r="N13" s="99">
         <v>12</v>
       </c>
-      <c r="O13" s="88">
+      <c r="O13" s="99">
         <v>7</v>
       </c>
-      <c r="P13" s="88">
+      <c r="P13" s="99">
         <v>0</v>
       </c>
-      <c r="Q13" s="109"/>
+      <c r="Q13" s="103"/>
       <c r="R13" s="105">
         <v>8</v>
       </c>
@@ -6677,14 +6595,14 @@
       <c r="T13" s="105">
         <v>20</v>
       </c>
-      <c r="U13" s="111" t="s">
+      <c r="U13" s="106" t="s">
         <v>145</v>
       </c>
       <c r="V13" s="105"/>
-      <c r="W13" s="111" t="s">
+      <c r="W13" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="X13" s="103">
+      <c r="X13" s="107">
         <v>-8</v>
       </c>
       <c r="Z13" s="34">
@@ -6694,35 +6612,35 @@
       <c r="AA13" s="35">
         <v>24</v>
       </c>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88">
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99">
         <v>0</v>
       </c>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="88">
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="99">
         <v>-22</v>
       </c>
-      <c r="AF13" s="88">
+      <c r="AF13" s="99">
         <v>-28</v>
       </c>
-      <c r="AG13" s="88">
+      <c r="AG13" s="99">
         <v>-35</v>
       </c>
-      <c r="AH13" s="88"/>
-      <c r="AI13" s="88"/>
-      <c r="AJ13" s="88"/>
-      <c r="AK13" s="88"/>
-      <c r="AL13" s="88"/>
-      <c r="AM13" s="109"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="103"/>
       <c r="AN13" s="105"/>
       <c r="AO13" s="105"/>
       <c r="AP13" s="105"/>
-      <c r="AQ13" s="111"/>
+      <c r="AQ13" s="106"/>
       <c r="AR13" s="105"/>
-      <c r="AS13" s="111"/>
-      <c r="AT13" s="103"/>
-      <c r="AU13" s="111"/>
-      <c r="AV13" s="103"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="107"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="107"/>
     </row>
     <row r="14" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D14" s="34">
@@ -6731,25 +6649,25 @@
       <c r="E14" s="35">
         <v>30</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="109"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="103"/>
       <c r="R14" s="105"/>
       <c r="S14" s="105"/>
       <c r="T14" s="105"/>
       <c r="U14" s="105"/>
       <c r="V14" s="105"/>
       <c r="W14" s="105"/>
-      <c r="X14" s="103"/>
+      <c r="X14" s="107"/>
       <c r="Z14" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6757,27 +6675,27 @@
       <c r="AA14" s="35">
         <v>30</v>
       </c>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="88"/>
-      <c r="AH14" s="88"/>
-      <c r="AI14" s="88"/>
-      <c r="AJ14" s="88"/>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="109"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="121"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="103"/>
       <c r="AN14" s="105"/>
       <c r="AO14" s="105"/>
       <c r="AP14" s="105"/>
       <c r="AQ14" s="105"/>
       <c r="AR14" s="105"/>
       <c r="AS14" s="105"/>
-      <c r="AT14" s="103"/>
+      <c r="AT14" s="107"/>
       <c r="AU14" s="105"/>
-      <c r="AV14" s="103"/>
+      <c r="AV14" s="107"/>
     </row>
     <row r="15" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D15" s="34">
@@ -6795,31 +6713,31 @@
       <c r="H15" s="18">
         <v>120</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="99">
         <v>100</v>
       </c>
-      <c r="J15" s="88">
+      <c r="J15" s="99">
         <v>80</v>
       </c>
-      <c r="K15" s="88">
+      <c r="K15" s="99">
         <v>50</v>
       </c>
-      <c r="L15" s="88">
+      <c r="L15" s="99">
         <v>35</v>
       </c>
-      <c r="M15" s="88">
+      <c r="M15" s="99">
         <v>25</v>
       </c>
-      <c r="N15" s="88">
+      <c r="N15" s="99">
         <v>15</v>
       </c>
-      <c r="O15" s="88">
+      <c r="O15" s="99">
         <v>9</v>
       </c>
-      <c r="P15" s="88">
+      <c r="P15" s="99">
         <v>0</v>
       </c>
-      <c r="Q15" s="109"/>
+      <c r="Q15" s="103"/>
       <c r="R15" s="105">
         <v>10</v>
       </c>
@@ -6829,14 +6747,14 @@
       <c r="T15" s="105">
         <v>24</v>
       </c>
-      <c r="U15" s="111" t="s">
+      <c r="U15" s="106" t="s">
         <v>145</v>
       </c>
       <c r="V15" s="105"/>
-      <c r="W15" s="111" t="s">
+      <c r="W15" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="X15" s="103">
+      <c r="X15" s="107">
         <v>-9</v>
       </c>
       <c r="Z15" s="34">
@@ -6846,35 +6764,35 @@
       <c r="AA15" s="35">
         <v>40</v>
       </c>
-      <c r="AB15" s="88"/>
-      <c r="AC15" s="88">
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="99">
         <v>0</v>
       </c>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="88">
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="99">
         <v>-26</v>
       </c>
-      <c r="AF15" s="88">
+      <c r="AF15" s="99">
         <v>-34</v>
       </c>
-      <c r="AG15" s="88">
+      <c r="AG15" s="99">
         <v>-43</v>
       </c>
-      <c r="AH15" s="88"/>
-      <c r="AI15" s="88"/>
-      <c r="AJ15" s="88"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="88"/>
-      <c r="AM15" s="109"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="99"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="103"/>
       <c r="AN15" s="105"/>
       <c r="AO15" s="105"/>
       <c r="AP15" s="105"/>
-      <c r="AQ15" s="111"/>
+      <c r="AQ15" s="106"/>
       <c r="AR15" s="105"/>
-      <c r="AS15" s="111"/>
-      <c r="AT15" s="103"/>
-      <c r="AU15" s="111"/>
-      <c r="AV15" s="103"/>
+      <c r="AS15" s="106"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="106"/>
+      <c r="AV15" s="107"/>
     </row>
     <row r="16" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D16" s="34">
@@ -6892,22 +6810,22 @@
       <c r="H16" s="18">
         <v>130</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="109"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="103"/>
       <c r="R16" s="105"/>
       <c r="S16" s="105"/>
       <c r="T16" s="105"/>
       <c r="U16" s="105"/>
       <c r="V16" s="105"/>
       <c r="W16" s="105"/>
-      <c r="X16" s="103"/>
+      <c r="X16" s="107"/>
       <c r="Z16" s="34">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6915,27 +6833,27 @@
       <c r="AA16" s="35">
         <v>50</v>
       </c>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="88"/>
-      <c r="AK16" s="88"/>
-      <c r="AL16" s="88"/>
-      <c r="AM16" s="109"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="103"/>
       <c r="AN16" s="105"/>
       <c r="AO16" s="105"/>
       <c r="AP16" s="105"/>
       <c r="AQ16" s="105"/>
       <c r="AR16" s="105"/>
       <c r="AS16" s="105"/>
-      <c r="AT16" s="103"/>
+      <c r="AT16" s="107"/>
       <c r="AU16" s="105"/>
-      <c r="AV16" s="103"/>
+      <c r="AV16" s="107"/>
     </row>
     <row r="17" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D17" s="34">
@@ -6953,25 +6871,25 @@
       <c r="H17" s="18">
         <v>140</v>
       </c>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88">
+      <c r="I17" s="99"/>
+      <c r="J17" s="99">
         <v>100</v>
       </c>
-      <c r="K17" s="88">
+      <c r="K17" s="99">
         <v>60</v>
       </c>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88">
+      <c r="L17" s="99"/>
+      <c r="M17" s="99">
         <v>30</v>
       </c>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88">
+      <c r="N17" s="99"/>
+      <c r="O17" s="99">
         <v>10</v>
       </c>
-      <c r="P17" s="88">
+      <c r="P17" s="99">
         <v>0</v>
       </c>
-      <c r="Q17" s="109"/>
+      <c r="Q17" s="103"/>
       <c r="R17" s="105">
         <v>13</v>
       </c>
@@ -6981,14 +6899,14 @@
       <c r="T17" s="105">
         <v>28</v>
       </c>
-      <c r="U17" s="111" t="s">
+      <c r="U17" s="106" t="s">
         <v>145</v>
       </c>
       <c r="V17" s="105"/>
-      <c r="W17" s="111" t="s">
+      <c r="W17" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="X17" s="103">
+      <c r="X17" s="107">
         <v>-11</v>
       </c>
       <c r="Z17" s="34">
@@ -6998,12 +6916,12 @@
       <c r="AA17" s="35">
         <v>65</v>
       </c>
-      <c r="AB17" s="88"/>
-      <c r="AC17" s="88">
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="99">
         <v>0</v>
       </c>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="88">
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="99">
         <v>-32</v>
       </c>
       <c r="AF17" s="36">
@@ -7012,21 +6930,21 @@
       <c r="AG17" s="36">
         <v>-53</v>
       </c>
-      <c r="AH17" s="88"/>
-      <c r="AI17" s="88"/>
-      <c r="AJ17" s="88"/>
-      <c r="AK17" s="88"/>
-      <c r="AL17" s="88"/>
-      <c r="AM17" s="109"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="103"/>
       <c r="AN17" s="105"/>
       <c r="AO17" s="105"/>
       <c r="AP17" s="105"/>
-      <c r="AQ17" s="111"/>
+      <c r="AQ17" s="106"/>
       <c r="AR17" s="105"/>
-      <c r="AS17" s="111"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="111"/>
-      <c r="AV17" s="103"/>
+      <c r="AS17" s="106"/>
+      <c r="AT17" s="107"/>
+      <c r="AU17" s="106"/>
+      <c r="AV17" s="107"/>
     </row>
     <row r="18" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D18" s="34">
@@ -7044,22 +6962,22 @@
       <c r="H18" s="18">
         <v>150</v>
       </c>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="109"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="103"/>
       <c r="R18" s="105"/>
       <c r="S18" s="105"/>
       <c r="T18" s="105"/>
       <c r="U18" s="105"/>
       <c r="V18" s="105"/>
       <c r="W18" s="105"/>
-      <c r="X18" s="103"/>
+      <c r="X18" s="107"/>
       <c r="Z18" s="34">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -7067,31 +6985,31 @@
       <c r="AA18" s="35">
         <v>80</v>
       </c>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="88"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="121"/>
+      <c r="AE18" s="99"/>
       <c r="AF18" s="36">
         <v>-43</v>
       </c>
       <c r="AG18" s="36">
         <v>-59</v>
       </c>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="109"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="103"/>
       <c r="AN18" s="105"/>
       <c r="AO18" s="105"/>
       <c r="AP18" s="105"/>
       <c r="AQ18" s="105"/>
       <c r="AR18" s="105"/>
       <c r="AS18" s="105"/>
-      <c r="AT18" s="103"/>
+      <c r="AT18" s="107"/>
       <c r="AU18" s="105"/>
-      <c r="AV18" s="103"/>
+      <c r="AV18" s="107"/>
     </row>
     <row r="19" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D19" s="34">
@@ -7109,25 +7027,25 @@
       <c r="H19" s="18">
         <v>170</v>
       </c>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88">
+      <c r="I19" s="99"/>
+      <c r="J19" s="99">
         <v>120</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K19" s="99">
         <v>72</v>
       </c>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88">
+      <c r="L19" s="99"/>
+      <c r="M19" s="99">
         <v>36</v>
       </c>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88">
+      <c r="N19" s="99"/>
+      <c r="O19" s="99">
         <v>12</v>
       </c>
-      <c r="P19" s="88">
+      <c r="P19" s="99">
         <v>0</v>
       </c>
-      <c r="Q19" s="109"/>
+      <c r="Q19" s="103"/>
       <c r="R19" s="105">
         <v>16</v>
       </c>
@@ -7137,14 +7055,14 @@
       <c r="T19" s="105">
         <v>34</v>
       </c>
-      <c r="U19" s="111" t="s">
+      <c r="U19" s="106" t="s">
         <v>146</v>
       </c>
       <c r="V19" s="105"/>
-      <c r="W19" s="111" t="s">
+      <c r="W19" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="X19" s="103">
+      <c r="X19" s="107">
         <v>-13</v>
       </c>
       <c r="Z19" s="34">
@@ -7154,12 +7072,12 @@
       <c r="AA19" s="35">
         <v>100</v>
       </c>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92">
+      <c r="AB19" s="115"/>
+      <c r="AC19" s="115">
         <v>0</v>
       </c>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="92">
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="115">
         <v>-37</v>
       </c>
       <c r="AF19" s="39">
@@ -7168,21 +7086,21 @@
       <c r="AG19" s="39">
         <v>-71</v>
       </c>
-      <c r="AH19" s="88"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="88"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="109"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="103"/>
       <c r="AN19" s="105"/>
       <c r="AO19" s="105"/>
       <c r="AP19" s="105"/>
-      <c r="AQ19" s="111"/>
+      <c r="AQ19" s="106"/>
       <c r="AR19" s="105"/>
-      <c r="AS19" s="111"/>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="111"/>
-      <c r="AV19" s="103"/>
+      <c r="AS19" s="106"/>
+      <c r="AT19" s="107"/>
+      <c r="AU19" s="106"/>
+      <c r="AV19" s="107"/>
     </row>
     <row r="20" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D20" s="34">
@@ -7200,22 +7118,22 @@
       <c r="H20" s="18">
         <v>180</v>
       </c>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="109"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="103"/>
       <c r="R20" s="105"/>
       <c r="S20" s="105"/>
       <c r="T20" s="105"/>
       <c r="U20" s="105"/>
       <c r="V20" s="105"/>
       <c r="W20" s="105"/>
-      <c r="X20" s="103"/>
+      <c r="X20" s="107"/>
       <c r="Z20" s="34">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -7223,31 +7141,31 @@
       <c r="AA20" s="35">
         <v>120</v>
       </c>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="93"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="119"/>
       <c r="AF20" s="46">
         <v>-54</v>
       </c>
       <c r="AG20" s="46">
         <v>-79</v>
       </c>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="109"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="103"/>
       <c r="AN20" s="105"/>
       <c r="AO20" s="105"/>
       <c r="AP20" s="105"/>
       <c r="AQ20" s="105"/>
       <c r="AR20" s="105"/>
       <c r="AS20" s="105"/>
-      <c r="AT20" s="103"/>
+      <c r="AT20" s="107"/>
       <c r="AU20" s="105"/>
-      <c r="AV20" s="103"/>
+      <c r="AV20" s="107"/>
     </row>
     <row r="21" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D21" s="34">
@@ -7265,25 +7183,25 @@
       <c r="H21" s="18">
         <v>200</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88">
+      <c r="I21" s="99"/>
+      <c r="J21" s="99">
         <v>145</v>
       </c>
-      <c r="K21" s="88">
+      <c r="K21" s="99">
         <v>85</v>
       </c>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88">
+      <c r="L21" s="99"/>
+      <c r="M21" s="99">
         <v>43</v>
       </c>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88">
+      <c r="N21" s="99"/>
+      <c r="O21" s="99">
         <v>14</v>
       </c>
-      <c r="P21" s="88">
+      <c r="P21" s="99">
         <v>0</v>
       </c>
-      <c r="Q21" s="109"/>
+      <c r="Q21" s="103"/>
       <c r="R21" s="105">
         <v>18</v>
       </c>
@@ -7297,10 +7215,10 @@
         <v>146</v>
       </c>
       <c r="V21" s="105"/>
-      <c r="W21" s="111" t="s">
+      <c r="W21" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="X21" s="103">
+      <c r="X21" s="107">
         <v>-15</v>
       </c>
       <c r="Z21" s="34">
@@ -7310,31 +7228,31 @@
       <c r="AA21" s="35">
         <v>140</v>
       </c>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="94"/>
+      <c r="AB21" s="116"/>
+      <c r="AC21" s="116"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="116"/>
       <c r="AF21" s="40">
         <v>-63</v>
       </c>
       <c r="AG21" s="40">
         <v>-92</v>
       </c>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="88"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="109"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="103"/>
       <c r="AN21" s="105"/>
       <c r="AO21" s="105"/>
       <c r="AP21" s="105"/>
       <c r="AQ21" s="105"/>
       <c r="AR21" s="105"/>
-      <c r="AS21" s="111"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="111"/>
-      <c r="AV21" s="103"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="107"/>
+      <c r="AU21" s="106"/>
+      <c r="AV21" s="107"/>
     </row>
     <row r="22" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D22" s="34">
@@ -7352,22 +7270,22 @@
       <c r="H22" s="18">
         <v>210</v>
       </c>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="109"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="103"/>
       <c r="R22" s="105"/>
       <c r="S22" s="105"/>
       <c r="T22" s="105"/>
       <c r="U22" s="105"/>
       <c r="V22" s="105"/>
       <c r="W22" s="105"/>
-      <c r="X22" s="103"/>
+      <c r="X22" s="107"/>
       <c r="Z22" s="34">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -7375,12 +7293,12 @@
       <c r="AA22" s="35">
         <v>160</v>
       </c>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92">
+      <c r="AB22" s="115"/>
+      <c r="AC22" s="115">
         <v>0</v>
       </c>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="92">
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="115">
         <v>-43</v>
       </c>
       <c r="AF22" s="39">
@@ -7389,21 +7307,21 @@
       <c r="AG22" s="39">
         <v>-100</v>
       </c>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="109"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="103"/>
       <c r="AN22" s="105"/>
       <c r="AO22" s="105"/>
       <c r="AP22" s="105"/>
       <c r="AQ22" s="105"/>
       <c r="AR22" s="105"/>
       <c r="AS22" s="105"/>
-      <c r="AT22" s="103"/>
+      <c r="AT22" s="107"/>
       <c r="AU22" s="105"/>
-      <c r="AV22" s="103"/>
+      <c r="AV22" s="107"/>
     </row>
     <row r="23" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D23" s="34">
@@ -7421,22 +7339,22 @@
       <c r="H23" s="18">
         <v>230</v>
       </c>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="109"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="103"/>
       <c r="R23" s="105"/>
       <c r="S23" s="105"/>
       <c r="T23" s="105"/>
       <c r="U23" s="105"/>
       <c r="V23" s="105"/>
       <c r="W23" s="105"/>
-      <c r="X23" s="103"/>
+      <c r="X23" s="107"/>
       <c r="Z23" s="34">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -7444,31 +7362,31 @@
       <c r="AA23" s="35">
         <v>180</v>
       </c>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="93"/>
+      <c r="AB23" s="119"/>
+      <c r="AC23" s="119"/>
+      <c r="AD23" s="121"/>
+      <c r="AE23" s="119"/>
       <c r="AF23" s="46">
         <v>-68</v>
       </c>
       <c r="AG23" s="46">
         <v>-108</v>
       </c>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="88"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="88"/>
-      <c r="AM23" s="109"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="103"/>
       <c r="AN23" s="105"/>
       <c r="AO23" s="105"/>
       <c r="AP23" s="105"/>
       <c r="AQ23" s="105"/>
       <c r="AR23" s="105"/>
       <c r="AS23" s="105"/>
-      <c r="AT23" s="103"/>
+      <c r="AT23" s="107"/>
       <c r="AU23" s="105"/>
-      <c r="AV23" s="103"/>
+      <c r="AV23" s="107"/>
     </row>
     <row r="24" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D24" s="34">
@@ -7486,25 +7404,25 @@
       <c r="H24" s="18">
         <v>240</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88">
+      <c r="I24" s="99"/>
+      <c r="J24" s="99">
         <v>170</v>
       </c>
-      <c r="K24" s="88">
+      <c r="K24" s="99">
         <v>100</v>
       </c>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88">
+      <c r="L24" s="99"/>
+      <c r="M24" s="99">
         <v>50</v>
       </c>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88">
+      <c r="N24" s="99"/>
+      <c r="O24" s="99">
         <v>15</v>
       </c>
-      <c r="P24" s="88">
+      <c r="P24" s="99">
         <v>0</v>
       </c>
-      <c r="Q24" s="109"/>
+      <c r="Q24" s="103"/>
       <c r="R24" s="105">
         <v>22</v>
       </c>
@@ -7514,14 +7432,14 @@
       <c r="T24" s="105">
         <v>47</v>
       </c>
-      <c r="U24" s="111" t="s">
+      <c r="U24" s="106" t="s">
         <v>147</v>
       </c>
       <c r="V24" s="105"/>
-      <c r="W24" s="111" t="s">
+      <c r="W24" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="X24" s="103">
+      <c r="X24" s="107">
         <v>-17</v>
       </c>
       <c r="Z24" s="34">
@@ -7531,31 +7449,31 @@
       <c r="AA24" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="94"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="121"/>
+      <c r="AE24" s="116"/>
       <c r="AF24" s="40">
         <v>-77</v>
       </c>
       <c r="AG24" s="40">
         <v>-122</v>
       </c>
-      <c r="AH24" s="88"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="88"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="109"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="103"/>
       <c r="AN24" s="105"/>
       <c r="AO24" s="105"/>
       <c r="AP24" s="105"/>
-      <c r="AQ24" s="111"/>
+      <c r="AQ24" s="106"/>
       <c r="AR24" s="105"/>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="103"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="103"/>
+      <c r="AS24" s="106"/>
+      <c r="AT24" s="107"/>
+      <c r="AU24" s="106"/>
+      <c r="AV24" s="107"/>
     </row>
     <row r="25" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D25" s="34">
@@ -7573,22 +7491,22 @@
       <c r="H25" s="18">
         <v>260</v>
       </c>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="109"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="103"/>
       <c r="R25" s="105"/>
       <c r="S25" s="105"/>
       <c r="T25" s="105"/>
       <c r="U25" s="105"/>
       <c r="V25" s="105"/>
       <c r="W25" s="105"/>
-      <c r="X25" s="103"/>
+      <c r="X25" s="107"/>
       <c r="Z25" s="34" t="str">
         <f t="shared" si="0"/>
         <v>2''</v>
@@ -7596,12 +7514,12 @@
       <c r="AA25" s="35">
         <v>225</v>
       </c>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92">
+      <c r="AB25" s="115"/>
+      <c r="AC25" s="115">
         <v>0</v>
       </c>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="92">
+      <c r="AD25" s="121"/>
+      <c r="AE25" s="115">
         <v>-50</v>
       </c>
       <c r="AF25" s="39">
@@ -7610,21 +7528,21 @@
       <c r="AG25" s="39">
         <v>-130</v>
       </c>
-      <c r="AH25" s="88"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="88"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="88"/>
-      <c r="AM25" s="109"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="103"/>
       <c r="AN25" s="105"/>
       <c r="AO25" s="105"/>
       <c r="AP25" s="105"/>
       <c r="AQ25" s="105"/>
       <c r="AR25" s="105"/>
       <c r="AS25" s="105"/>
-      <c r="AT25" s="103"/>
+      <c r="AT25" s="107"/>
       <c r="AU25" s="105"/>
-      <c r="AV25" s="103"/>
+      <c r="AV25" s="107"/>
     </row>
     <row r="26" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D26" s="34">
@@ -7642,22 +7560,22 @@
       <c r="H26" s="18">
         <v>280</v>
       </c>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="109"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="103"/>
       <c r="R26" s="105"/>
       <c r="S26" s="105"/>
       <c r="T26" s="105"/>
       <c r="U26" s="105"/>
       <c r="V26" s="105"/>
       <c r="W26" s="105"/>
-      <c r="X26" s="103"/>
+      <c r="X26" s="107"/>
       <c r="Z26" s="34">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -7665,31 +7583,31 @@
       <c r="AA26" s="35">
         <v>250</v>
       </c>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="94"/>
+      <c r="AB26" s="116"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="121"/>
+      <c r="AE26" s="116"/>
       <c r="AF26" s="40">
         <v>-84</v>
       </c>
       <c r="AG26" s="40">
         <v>-140</v>
       </c>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="109"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="99"/>
+      <c r="AK26" s="99"/>
+      <c r="AL26" s="99"/>
+      <c r="AM26" s="103"/>
       <c r="AN26" s="105"/>
       <c r="AO26" s="105"/>
       <c r="AP26" s="105"/>
       <c r="AQ26" s="105"/>
       <c r="AR26" s="105"/>
       <c r="AS26" s="105"/>
-      <c r="AT26" s="103"/>
+      <c r="AT26" s="107"/>
       <c r="AU26" s="105"/>
-      <c r="AV26" s="103"/>
+      <c r="AV26" s="107"/>
     </row>
     <row r="27" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D27" s="34">
@@ -7707,25 +7625,25 @@
       <c r="H27" s="18">
         <v>300</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88">
+      <c r="I27" s="99"/>
+      <c r="J27" s="99">
         <v>190</v>
       </c>
-      <c r="K27" s="88">
+      <c r="K27" s="99">
         <v>110</v>
       </c>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88">
+      <c r="L27" s="99"/>
+      <c r="M27" s="99">
         <v>56</v>
       </c>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88">
+      <c r="N27" s="99"/>
+      <c r="O27" s="99">
         <v>17</v>
       </c>
-      <c r="P27" s="88">
+      <c r="P27" s="99">
         <v>0</v>
       </c>
-      <c r="Q27" s="109"/>
+      <c r="Q27" s="103"/>
       <c r="R27" s="105">
         <v>25</v>
       </c>
@@ -7739,10 +7657,10 @@
         <v>147</v>
       </c>
       <c r="V27" s="105"/>
-      <c r="W27" s="111" t="s">
+      <c r="W27" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="X27" s="103">
+      <c r="X27" s="107">
         <v>-20</v>
       </c>
       <c r="Z27" s="34">
@@ -7752,12 +7670,12 @@
       <c r="AA27" s="35">
         <v>280</v>
       </c>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92">
+      <c r="AB27" s="115"/>
+      <c r="AC27" s="115">
         <v>0</v>
       </c>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="92">
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="115">
         <v>-56</v>
       </c>
       <c r="AF27" s="39">
@@ -7766,21 +7684,21 @@
       <c r="AG27" s="39">
         <v>-158</v>
       </c>
-      <c r="AH27" s="88"/>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="88"/>
-      <c r="AK27" s="88"/>
-      <c r="AL27" s="88"/>
-      <c r="AM27" s="109"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="99"/>
+      <c r="AK27" s="99"/>
+      <c r="AL27" s="99"/>
+      <c r="AM27" s="103"/>
       <c r="AN27" s="105"/>
       <c r="AO27" s="105"/>
       <c r="AP27" s="105"/>
       <c r="AQ27" s="105"/>
       <c r="AR27" s="105"/>
-      <c r="AS27" s="111"/>
-      <c r="AT27" s="103"/>
-      <c r="AU27" s="111"/>
-      <c r="AV27" s="103"/>
+      <c r="AS27" s="106"/>
+      <c r="AT27" s="107"/>
+      <c r="AU27" s="106"/>
+      <c r="AV27" s="107"/>
     </row>
     <row r="28" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D28" s="34">
@@ -7798,22 +7716,22 @@
       <c r="H28" s="18">
         <v>330</v>
       </c>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="109"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="103"/>
       <c r="R28" s="105"/>
       <c r="S28" s="105"/>
       <c r="T28" s="105"/>
       <c r="U28" s="105"/>
       <c r="V28" s="105"/>
       <c r="W28" s="105"/>
-      <c r="X28" s="103"/>
+      <c r="X28" s="107"/>
       <c r="Z28" s="34">
         <f t="shared" si="0"/>
         <v>280</v>
@@ -7821,31 +7739,31 @@
       <c r="AA28" s="35">
         <v>315</v>
       </c>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="90"/>
-      <c r="AE28" s="94"/>
+      <c r="AB28" s="116"/>
+      <c r="AC28" s="116"/>
+      <c r="AD28" s="121"/>
+      <c r="AE28" s="116"/>
       <c r="AF28" s="40">
         <v>-98</v>
       </c>
       <c r="AG28" s="40">
         <v>-170</v>
       </c>
-      <c r="AH28" s="88"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="88"/>
-      <c r="AK28" s="88"/>
-      <c r="AL28" s="88"/>
-      <c r="AM28" s="109"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
+      <c r="AK28" s="99"/>
+      <c r="AL28" s="99"/>
+      <c r="AM28" s="103"/>
       <c r="AN28" s="105"/>
       <c r="AO28" s="105"/>
       <c r="AP28" s="105"/>
       <c r="AQ28" s="105"/>
       <c r="AR28" s="105"/>
       <c r="AS28" s="105"/>
-      <c r="AT28" s="103"/>
+      <c r="AT28" s="107"/>
       <c r="AU28" s="105"/>
-      <c r="AV28" s="103"/>
+      <c r="AV28" s="107"/>
     </row>
     <row r="29" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D29" s="34">
@@ -7863,25 +7781,25 @@
       <c r="H29" s="18">
         <v>360</v>
       </c>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88">
+      <c r="I29" s="99"/>
+      <c r="J29" s="99">
         <v>210</v>
       </c>
-      <c r="K29" s="88">
+      <c r="K29" s="99">
         <v>125</v>
       </c>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88">
+      <c r="L29" s="99"/>
+      <c r="M29" s="99">
         <v>62</v>
       </c>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88">
+      <c r="N29" s="99"/>
+      <c r="O29" s="99">
         <v>18</v>
       </c>
-      <c r="P29" s="88">
+      <c r="P29" s="99">
         <v>0</v>
       </c>
-      <c r="Q29" s="109"/>
+      <c r="Q29" s="103"/>
       <c r="R29" s="105">
         <v>29</v>
       </c>
@@ -7895,10 +7813,10 @@
         <v>147</v>
       </c>
       <c r="V29" s="105"/>
-      <c r="W29" s="111" t="s">
+      <c r="W29" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="X29" s="103">
+      <c r="X29" s="107">
         <v>-21</v>
       </c>
       <c r="Z29" s="34">
@@ -7908,12 +7826,12 @@
       <c r="AA29" s="35">
         <v>255</v>
       </c>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92">
+      <c r="AB29" s="115"/>
+      <c r="AC29" s="115">
         <v>0</v>
       </c>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="92">
+      <c r="AD29" s="121"/>
+      <c r="AE29" s="115">
         <v>-62</v>
       </c>
       <c r="AF29" s="39">
@@ -7922,21 +7840,21 @@
       <c r="AG29" s="39">
         <v>-190</v>
       </c>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="109"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="99"/>
+      <c r="AK29" s="99"/>
+      <c r="AL29" s="99"/>
+      <c r="AM29" s="103"/>
       <c r="AN29" s="105"/>
       <c r="AO29" s="105"/>
       <c r="AP29" s="105"/>
       <c r="AQ29" s="105"/>
       <c r="AR29" s="105"/>
-      <c r="AS29" s="111"/>
-      <c r="AT29" s="103"/>
-      <c r="AU29" s="111"/>
-      <c r="AV29" s="103"/>
+      <c r="AS29" s="106"/>
+      <c r="AT29" s="107"/>
+      <c r="AU29" s="106"/>
+      <c r="AV29" s="107"/>
     </row>
     <row r="30" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D30" s="34">
@@ -7954,22 +7872,22 @@
       <c r="H30" s="18">
         <v>400</v>
       </c>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="109"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="103"/>
       <c r="R30" s="105"/>
       <c r="S30" s="105"/>
       <c r="T30" s="105"/>
       <c r="U30" s="105"/>
       <c r="V30" s="105"/>
       <c r="W30" s="105"/>
-      <c r="X30" s="103"/>
+      <c r="X30" s="107"/>
       <c r="Z30" s="34">
         <f t="shared" si="0"/>
         <v>255</v>
@@ -7977,31 +7895,31 @@
       <c r="AA30" s="35">
         <v>400</v>
       </c>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="94"/>
+      <c r="AB30" s="116"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="121"/>
+      <c r="AE30" s="116"/>
       <c r="AF30" s="40">
         <v>-114</v>
       </c>
       <c r="AG30" s="40">
         <v>-208</v>
       </c>
-      <c r="AH30" s="88"/>
-      <c r="AI30" s="88"/>
-      <c r="AJ30" s="88"/>
-      <c r="AK30" s="88"/>
-      <c r="AL30" s="88"/>
-      <c r="AM30" s="109"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="99"/>
+      <c r="AJ30" s="99"/>
+      <c r="AK30" s="99"/>
+      <c r="AL30" s="99"/>
+      <c r="AM30" s="103"/>
       <c r="AN30" s="105"/>
       <c r="AO30" s="105"/>
       <c r="AP30" s="105"/>
       <c r="AQ30" s="105"/>
       <c r="AR30" s="105"/>
       <c r="AS30" s="105"/>
-      <c r="AT30" s="103"/>
+      <c r="AT30" s="107"/>
       <c r="AU30" s="105"/>
-      <c r="AV30" s="103"/>
+      <c r="AV30" s="107"/>
     </row>
     <row r="31" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D31" s="34">
@@ -8019,25 +7937,25 @@
       <c r="H31" s="18">
         <v>440</v>
       </c>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88">
+      <c r="I31" s="99"/>
+      <c r="J31" s="99">
         <v>230</v>
       </c>
-      <c r="K31" s="88">
+      <c r="K31" s="99">
         <v>135</v>
       </c>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88">
+      <c r="L31" s="99"/>
+      <c r="M31" s="99">
         <v>68</v>
       </c>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88">
+      <c r="N31" s="99"/>
+      <c r="O31" s="99">
         <v>20</v>
       </c>
-      <c r="P31" s="88">
+      <c r="P31" s="99">
         <v>0</v>
       </c>
-      <c r="Q31" s="109"/>
+      <c r="Q31" s="103"/>
       <c r="R31" s="105">
         <v>33</v>
       </c>
@@ -8047,14 +7965,14 @@
       <c r="T31" s="105">
         <v>66</v>
       </c>
-      <c r="U31" s="111" t="s">
+      <c r="U31" s="106" t="s">
         <v>148</v>
       </c>
       <c r="V31" s="105"/>
-      <c r="W31" s="111" t="s">
+      <c r="W31" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="X31" s="103">
+      <c r="X31" s="107">
         <v>-23</v>
       </c>
       <c r="Z31" s="34">
@@ -8064,12 +7982,12 @@
       <c r="AA31" s="35">
         <v>450</v>
       </c>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92">
+      <c r="AB31" s="115"/>
+      <c r="AC31" s="115">
         <v>0</v>
       </c>
-      <c r="AD31" s="90"/>
-      <c r="AE31" s="92">
+      <c r="AD31" s="121"/>
+      <c r="AE31" s="115">
         <v>-68</v>
       </c>
       <c r="AF31" s="39">
@@ -8078,21 +7996,21 @@
       <c r="AG31" s="39">
         <v>-232</v>
       </c>
-      <c r="AH31" s="88"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="88"/>
-      <c r="AK31" s="88"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="109"/>
+      <c r="AH31" s="99"/>
+      <c r="AI31" s="99"/>
+      <c r="AJ31" s="99"/>
+      <c r="AK31" s="99"/>
+      <c r="AL31" s="99"/>
+      <c r="AM31" s="103"/>
       <c r="AN31" s="105"/>
       <c r="AO31" s="105"/>
       <c r="AP31" s="105"/>
-      <c r="AQ31" s="111"/>
+      <c r="AQ31" s="106"/>
       <c r="AR31" s="105"/>
-      <c r="AS31" s="111"/>
-      <c r="AT31" s="103"/>
-      <c r="AU31" s="111"/>
-      <c r="AV31" s="103"/>
+      <c r="AS31" s="106"/>
+      <c r="AT31" s="107"/>
+      <c r="AU31" s="106"/>
+      <c r="AV31" s="107"/>
     </row>
     <row r="32" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D32" s="34">
@@ -8110,22 +8028,22 @@
       <c r="H32" s="18">
         <v>480</v>
       </c>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="109"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="103"/>
       <c r="R32" s="105"/>
       <c r="S32" s="105"/>
       <c r="T32" s="105"/>
       <c r="U32" s="105"/>
       <c r="V32" s="105"/>
       <c r="W32" s="105"/>
-      <c r="X32" s="103"/>
+      <c r="X32" s="107"/>
       <c r="Z32" s="34">
         <f t="shared" si="0"/>
         <v>450</v>
@@ -8133,31 +8051,31 @@
       <c r="AA32" s="35">
         <v>500</v>
       </c>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="90"/>
-      <c r="AE32" s="94"/>
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="121"/>
+      <c r="AE32" s="116"/>
       <c r="AF32" s="40">
         <v>-132</v>
       </c>
       <c r="AG32" s="40">
         <v>-252</v>
       </c>
-      <c r="AH32" s="88"/>
-      <c r="AI32" s="88"/>
-      <c r="AJ32" s="88"/>
-      <c r="AK32" s="88"/>
-      <c r="AL32" s="88"/>
-      <c r="AM32" s="109"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="99"/>
+      <c r="AJ32" s="99"/>
+      <c r="AK32" s="99"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="103"/>
       <c r="AN32" s="105"/>
       <c r="AO32" s="105"/>
       <c r="AP32" s="105"/>
       <c r="AQ32" s="105"/>
       <c r="AR32" s="105"/>
       <c r="AS32" s="105"/>
-      <c r="AT32" s="103"/>
+      <c r="AT32" s="107"/>
       <c r="AU32" s="105"/>
-      <c r="AV32" s="103"/>
+      <c r="AV32" s="107"/>
     </row>
     <row r="33" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D33" s="34">
@@ -8166,28 +8084,28 @@
       <c r="E33" s="35">
         <v>560</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88">
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99">
         <v>260</v>
       </c>
-      <c r="K33" s="88">
+      <c r="K33" s="99">
         <v>145</v>
       </c>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88">
+      <c r="L33" s="99"/>
+      <c r="M33" s="99">
         <v>76</v>
       </c>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88">
+      <c r="N33" s="99"/>
+      <c r="O33" s="99">
         <v>22</v>
       </c>
-      <c r="P33" s="88">
+      <c r="P33" s="99">
         <v>0</v>
       </c>
-      <c r="Q33" s="109"/>
+      <c r="Q33" s="103"/>
       <c r="R33" s="105"/>
       <c r="S33" s="105"/>
       <c r="T33" s="105"/>
@@ -8195,10 +8113,10 @@
         <v>0</v>
       </c>
       <c r="V33" s="105"/>
-      <c r="W33" s="95">
+      <c r="W33" s="108">
         <v>-26</v>
       </c>
-      <c r="X33" s="96"/>
+      <c r="X33" s="109"/>
       <c r="Z33" s="34">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -8206,12 +8124,12 @@
       <c r="AA33" s="35">
         <v>560</v>
       </c>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92">
+      <c r="AB33" s="115"/>
+      <c r="AC33" s="115">
         <v>0</v>
       </c>
-      <c r="AD33" s="90"/>
-      <c r="AE33" s="92">
+      <c r="AD33" s="121"/>
+      <c r="AE33" s="115">
         <v>-78</v>
       </c>
       <c r="AF33" s="39">
@@ -8220,21 +8138,21 @@
       <c r="AG33" s="39">
         <v>-280</v>
       </c>
-      <c r="AH33" s="88"/>
-      <c r="AI33" s="88"/>
-      <c r="AJ33" s="88"/>
-      <c r="AK33" s="88"/>
-      <c r="AL33" s="88"/>
-      <c r="AM33" s="109"/>
+      <c r="AH33" s="99"/>
+      <c r="AI33" s="99"/>
+      <c r="AJ33" s="99"/>
+      <c r="AK33" s="99"/>
+      <c r="AL33" s="99"/>
+      <c r="AM33" s="103"/>
       <c r="AN33" s="105"/>
       <c r="AO33" s="105"/>
       <c r="AP33" s="105"/>
       <c r="AQ33" s="105"/>
       <c r="AR33" s="105"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="96"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="96"/>
+      <c r="AS33" s="108"/>
+      <c r="AT33" s="109"/>
+      <c r="AU33" s="108"/>
+      <c r="AV33" s="109"/>
     </row>
     <row r="34" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D34" s="34">
@@ -8243,25 +8161,25 @@
       <c r="E34" s="35">
         <v>630</v>
       </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="109"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="103"/>
       <c r="R34" s="105"/>
       <c r="S34" s="105"/>
       <c r="T34" s="105"/>
       <c r="U34" s="105"/>
       <c r="V34" s="105"/>
-      <c r="W34" s="97"/>
-      <c r="X34" s="98"/>
+      <c r="W34" s="110"/>
+      <c r="X34" s="111"/>
       <c r="Z34" s="34">
         <f t="shared" si="0"/>
         <v>560</v>
@@ -8269,31 +8187,31 @@
       <c r="AA34" s="35">
         <v>630</v>
       </c>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="91"/>
-      <c r="AE34" s="94"/>
+      <c r="AB34" s="116"/>
+      <c r="AC34" s="116"/>
+      <c r="AD34" s="122"/>
+      <c r="AE34" s="116"/>
       <c r="AF34" s="40">
         <v>-155</v>
       </c>
       <c r="AG34" s="40">
         <v>-310</v>
       </c>
-      <c r="AH34" s="88"/>
-      <c r="AI34" s="88"/>
-      <c r="AJ34" s="88"/>
-      <c r="AK34" s="88"/>
-      <c r="AL34" s="88"/>
-      <c r="AM34" s="109"/>
+      <c r="AH34" s="99"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="99"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="103"/>
       <c r="AN34" s="105"/>
       <c r="AO34" s="105"/>
       <c r="AP34" s="105"/>
       <c r="AQ34" s="105"/>
       <c r="AR34" s="105"/>
-      <c r="AS34" s="97"/>
-      <c r="AT34" s="98"/>
-      <c r="AU34" s="97"/>
-      <c r="AV34" s="98"/>
+      <c r="AS34" s="110"/>
+      <c r="AT34" s="111"/>
+      <c r="AU34" s="110"/>
+      <c r="AV34" s="111"/>
     </row>
     <row r="35" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D35" s="34">
@@ -8302,28 +8220,28 @@
       <c r="E35" s="35">
         <v>710</v>
       </c>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88">
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99">
         <v>290</v>
       </c>
-      <c r="K35" s="88">
+      <c r="K35" s="99">
         <v>160</v>
       </c>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88">
+      <c r="L35" s="99"/>
+      <c r="M35" s="99">
         <v>80</v>
       </c>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88">
+      <c r="N35" s="99"/>
+      <c r="O35" s="99">
         <v>24</v>
       </c>
-      <c r="P35" s="88">
+      <c r="P35" s="99">
         <v>0</v>
       </c>
-      <c r="Q35" s="109"/>
+      <c r="Q35" s="103"/>
       <c r="R35" s="105"/>
       <c r="S35" s="105"/>
       <c r="T35" s="105"/>
@@ -8331,37 +8249,37 @@
         <v>0</v>
       </c>
       <c r="V35" s="105"/>
-      <c r="W35" s="95">
+      <c r="W35" s="108">
         <v>-30</v>
       </c>
-      <c r="X35" s="96"/>
+      <c r="X35" s="109"/>
       <c r="Z35" s="34">
         <v>630</v>
       </c>
       <c r="AA35" s="35">
         <v>710</v>
       </c>
-      <c r="AB35" s="88"/>
-      <c r="AC35" s="88"/>
-      <c r="AD35" s="88"/>
-      <c r="AE35" s="88"/>
-      <c r="AF35" s="88"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="88"/>
-      <c r="AI35" s="88"/>
-      <c r="AJ35" s="88"/>
-      <c r="AK35" s="88"/>
-      <c r="AL35" s="88"/>
-      <c r="AM35" s="109"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="99"/>
+      <c r="AK35" s="99"/>
+      <c r="AL35" s="99"/>
+      <c r="AM35" s="103"/>
       <c r="AN35" s="105"/>
       <c r="AO35" s="105"/>
       <c r="AP35" s="105"/>
       <c r="AQ35" s="105"/>
       <c r="AR35" s="105"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" s="96"/>
-      <c r="AU35" s="95"/>
-      <c r="AV35" s="96"/>
+      <c r="AS35" s="108"/>
+      <c r="AT35" s="109"/>
+      <c r="AU35" s="108"/>
+      <c r="AV35" s="109"/>
     </row>
     <row r="36" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D36" s="34">
@@ -8370,52 +8288,52 @@
       <c r="E36" s="35">
         <v>800</v>
       </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="109"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="103"/>
       <c r="R36" s="105"/>
       <c r="S36" s="105"/>
       <c r="T36" s="105"/>
       <c r="U36" s="105"/>
       <c r="V36" s="105"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="98"/>
+      <c r="W36" s="110"/>
+      <c r="X36" s="111"/>
       <c r="Z36" s="34">
         <v>710</v>
       </c>
       <c r="AA36" s="35">
         <v>800</v>
       </c>
-      <c r="AB36" s="88"/>
-      <c r="AC36" s="88"/>
-      <c r="AD36" s="88"/>
-      <c r="AE36" s="88"/>
-      <c r="AF36" s="88"/>
-      <c r="AG36" s="88"/>
-      <c r="AH36" s="88"/>
-      <c r="AI36" s="88"/>
-      <c r="AJ36" s="88"/>
-      <c r="AK36" s="88"/>
-      <c r="AL36" s="88"/>
-      <c r="AM36" s="109"/>
+      <c r="AB36" s="99"/>
+      <c r="AC36" s="99"/>
+      <c r="AD36" s="99"/>
+      <c r="AE36" s="99"/>
+      <c r="AF36" s="99"/>
+      <c r="AG36" s="99"/>
+      <c r="AH36" s="99"/>
+      <c r="AI36" s="99"/>
+      <c r="AJ36" s="99"/>
+      <c r="AK36" s="99"/>
+      <c r="AL36" s="99"/>
+      <c r="AM36" s="103"/>
       <c r="AN36" s="105"/>
       <c r="AO36" s="105"/>
       <c r="AP36" s="105"/>
       <c r="AQ36" s="105"/>
       <c r="AR36" s="105"/>
-      <c r="AS36" s="97"/>
-      <c r="AT36" s="98"/>
-      <c r="AU36" s="97"/>
-      <c r="AV36" s="98"/>
+      <c r="AS36" s="110"/>
+      <c r="AT36" s="111"/>
+      <c r="AU36" s="110"/>
+      <c r="AV36" s="111"/>
     </row>
     <row r="37" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D37" s="34">
@@ -8424,28 +8342,28 @@
       <c r="E37" s="35">
         <v>900</v>
       </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88">
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99">
         <v>320</v>
       </c>
-      <c r="K37" s="88">
+      <c r="K37" s="99">
         <v>170</v>
       </c>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88">
+      <c r="L37" s="99"/>
+      <c r="M37" s="99">
         <v>86</v>
       </c>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88">
+      <c r="N37" s="99"/>
+      <c r="O37" s="99">
         <v>26</v>
       </c>
-      <c r="P37" s="88">
+      <c r="P37" s="99">
         <v>0</v>
       </c>
-      <c r="Q37" s="109"/>
+      <c r="Q37" s="103"/>
       <c r="R37" s="105"/>
       <c r="S37" s="105"/>
       <c r="T37" s="105"/>
@@ -8453,37 +8371,37 @@
         <v>0</v>
       </c>
       <c r="V37" s="105"/>
-      <c r="W37" s="95">
+      <c r="W37" s="108">
         <v>-34</v>
       </c>
-      <c r="X37" s="96"/>
+      <c r="X37" s="109"/>
       <c r="Z37" s="34">
         <v>800</v>
       </c>
       <c r="AA37" s="35">
         <v>900</v>
       </c>
-      <c r="AB37" s="88"/>
-      <c r="AC37" s="88"/>
-      <c r="AD37" s="88"/>
-      <c r="AE37" s="88"/>
-      <c r="AF37" s="88"/>
-      <c r="AG37" s="88"/>
-      <c r="AH37" s="88"/>
-      <c r="AI37" s="88"/>
-      <c r="AJ37" s="88"/>
-      <c r="AK37" s="88"/>
-      <c r="AL37" s="88"/>
-      <c r="AM37" s="109"/>
+      <c r="AB37" s="99"/>
+      <c r="AC37" s="99"/>
+      <c r="AD37" s="99"/>
+      <c r="AE37" s="99"/>
+      <c r="AF37" s="99"/>
+      <c r="AG37" s="99"/>
+      <c r="AH37" s="99"/>
+      <c r="AI37" s="99"/>
+      <c r="AJ37" s="99"/>
+      <c r="AK37" s="99"/>
+      <c r="AL37" s="99"/>
+      <c r="AM37" s="103"/>
       <c r="AN37" s="105"/>
       <c r="AO37" s="105"/>
       <c r="AP37" s="105"/>
       <c r="AQ37" s="105"/>
       <c r="AR37" s="105"/>
-      <c r="AS37" s="95"/>
-      <c r="AT37" s="96"/>
-      <c r="AU37" s="95"/>
-      <c r="AV37" s="96"/>
+      <c r="AS37" s="108"/>
+      <c r="AT37" s="109"/>
+      <c r="AU37" s="108"/>
+      <c r="AV37" s="109"/>
     </row>
     <row r="38" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D38" s="34">
@@ -8492,52 +8410,52 @@
       <c r="E38" s="35">
         <v>1000</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="109"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="103"/>
       <c r="R38" s="105"/>
       <c r="S38" s="105"/>
       <c r="T38" s="105"/>
       <c r="U38" s="105"/>
       <c r="V38" s="105"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="98"/>
+      <c r="W38" s="110"/>
+      <c r="X38" s="111"/>
       <c r="Z38" s="34">
         <v>900</v>
       </c>
       <c r="AA38" s="35">
         <v>1000</v>
       </c>
-      <c r="AB38" s="88"/>
-      <c r="AC38" s="88"/>
-      <c r="AD38" s="88"/>
-      <c r="AE38" s="88"/>
-      <c r="AF38" s="88"/>
-      <c r="AG38" s="88"/>
-      <c r="AH38" s="88"/>
-      <c r="AI38" s="88"/>
-      <c r="AJ38" s="88"/>
-      <c r="AK38" s="88"/>
-      <c r="AL38" s="88"/>
-      <c r="AM38" s="109"/>
+      <c r="AB38" s="99"/>
+      <c r="AC38" s="99"/>
+      <c r="AD38" s="99"/>
+      <c r="AE38" s="99"/>
+      <c r="AF38" s="99"/>
+      <c r="AG38" s="99"/>
+      <c r="AH38" s="99"/>
+      <c r="AI38" s="99"/>
+      <c r="AJ38" s="99"/>
+      <c r="AK38" s="99"/>
+      <c r="AL38" s="99"/>
+      <c r="AM38" s="103"/>
       <c r="AN38" s="105"/>
       <c r="AO38" s="105"/>
       <c r="AP38" s="105"/>
       <c r="AQ38" s="105"/>
       <c r="AR38" s="105"/>
-      <c r="AS38" s="97"/>
-      <c r="AT38" s="98"/>
-      <c r="AU38" s="97"/>
-      <c r="AV38" s="98"/>
+      <c r="AS38" s="110"/>
+      <c r="AT38" s="111"/>
+      <c r="AU38" s="110"/>
+      <c r="AV38" s="111"/>
     </row>
     <row r="39" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D39" s="34">
@@ -8546,28 +8464,28 @@
       <c r="E39" s="35">
         <v>1120</v>
       </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88">
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99">
         <v>350</v>
       </c>
-      <c r="K39" s="88">
+      <c r="K39" s="99">
         <v>195</v>
       </c>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88">
+      <c r="L39" s="99"/>
+      <c r="M39" s="99">
         <v>98</v>
       </c>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88">
+      <c r="N39" s="99"/>
+      <c r="O39" s="99">
         <v>28</v>
       </c>
-      <c r="P39" s="88">
+      <c r="P39" s="99">
         <v>0</v>
       </c>
-      <c r="Q39" s="109"/>
+      <c r="Q39" s="103"/>
       <c r="R39" s="105"/>
       <c r="S39" s="105"/>
       <c r="T39" s="105"/>
@@ -8575,37 +8493,37 @@
         <v>0</v>
       </c>
       <c r="V39" s="105"/>
-      <c r="W39" s="95">
+      <c r="W39" s="108">
         <v>-40</v>
       </c>
-      <c r="X39" s="96"/>
+      <c r="X39" s="109"/>
       <c r="Z39" s="34">
         <v>1000</v>
       </c>
       <c r="AA39" s="35">
         <v>1120</v>
       </c>
-      <c r="AB39" s="88"/>
-      <c r="AC39" s="88"/>
-      <c r="AD39" s="88"/>
-      <c r="AE39" s="88"/>
-      <c r="AF39" s="88"/>
-      <c r="AG39" s="88"/>
-      <c r="AH39" s="88"/>
-      <c r="AI39" s="88"/>
-      <c r="AJ39" s="88"/>
-      <c r="AK39" s="88"/>
-      <c r="AL39" s="88"/>
-      <c r="AM39" s="109"/>
+      <c r="AB39" s="99"/>
+      <c r="AC39" s="99"/>
+      <c r="AD39" s="99"/>
+      <c r="AE39" s="99"/>
+      <c r="AF39" s="99"/>
+      <c r="AG39" s="99"/>
+      <c r="AH39" s="99"/>
+      <c r="AI39" s="99"/>
+      <c r="AJ39" s="99"/>
+      <c r="AK39" s="99"/>
+      <c r="AL39" s="99"/>
+      <c r="AM39" s="103"/>
       <c r="AN39" s="105"/>
       <c r="AO39" s="105"/>
       <c r="AP39" s="105"/>
       <c r="AQ39" s="105"/>
       <c r="AR39" s="105"/>
-      <c r="AS39" s="95"/>
-      <c r="AT39" s="96"/>
-      <c r="AU39" s="95"/>
-      <c r="AV39" s="96"/>
+      <c r="AS39" s="108"/>
+      <c r="AT39" s="109"/>
+      <c r="AU39" s="108"/>
+      <c r="AV39" s="109"/>
     </row>
     <row r="40" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D40" s="34">
@@ -8614,52 +8532,52 @@
       <c r="E40" s="35">
         <v>1250</v>
       </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="109"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="103"/>
       <c r="R40" s="105"/>
       <c r="S40" s="105"/>
       <c r="T40" s="105"/>
       <c r="U40" s="105"/>
       <c r="V40" s="105"/>
-      <c r="W40" s="97"/>
-      <c r="X40" s="98"/>
+      <c r="W40" s="110"/>
+      <c r="X40" s="111"/>
       <c r="Z40" s="34">
         <v>1120</v>
       </c>
       <c r="AA40" s="35">
         <v>1250</v>
       </c>
-      <c r="AB40" s="88"/>
-      <c r="AC40" s="88"/>
-      <c r="AD40" s="88"/>
-      <c r="AE40" s="88"/>
-      <c r="AF40" s="88"/>
-      <c r="AG40" s="88"/>
-      <c r="AH40" s="88"/>
-      <c r="AI40" s="88"/>
-      <c r="AJ40" s="88"/>
-      <c r="AK40" s="88"/>
-      <c r="AL40" s="88"/>
-      <c r="AM40" s="109"/>
+      <c r="AB40" s="99"/>
+      <c r="AC40" s="99"/>
+      <c r="AD40" s="99"/>
+      <c r="AE40" s="99"/>
+      <c r="AF40" s="99"/>
+      <c r="AG40" s="99"/>
+      <c r="AH40" s="99"/>
+      <c r="AI40" s="99"/>
+      <c r="AJ40" s="99"/>
+      <c r="AK40" s="99"/>
+      <c r="AL40" s="99"/>
+      <c r="AM40" s="103"/>
       <c r="AN40" s="105"/>
       <c r="AO40" s="105"/>
       <c r="AP40" s="105"/>
       <c r="AQ40" s="105"/>
       <c r="AR40" s="105"/>
-      <c r="AS40" s="97"/>
-      <c r="AT40" s="98"/>
-      <c r="AU40" s="97"/>
-      <c r="AV40" s="98"/>
+      <c r="AS40" s="110"/>
+      <c r="AT40" s="111"/>
+      <c r="AU40" s="110"/>
+      <c r="AV40" s="111"/>
     </row>
     <row r="41" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D41" s="34">
@@ -8668,28 +8586,28 @@
       <c r="E41" s="35">
         <v>1400</v>
       </c>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88">
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99">
         <v>390</v>
       </c>
-      <c r="K41" s="88">
+      <c r="K41" s="99">
         <v>220</v>
       </c>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88">
+      <c r="L41" s="99"/>
+      <c r="M41" s="99">
         <v>110</v>
       </c>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88">
+      <c r="N41" s="99"/>
+      <c r="O41" s="99">
         <v>30</v>
       </c>
-      <c r="P41" s="88">
+      <c r="P41" s="99">
         <v>0</v>
       </c>
-      <c r="Q41" s="109"/>
+      <c r="Q41" s="103"/>
       <c r="R41" s="105"/>
       <c r="S41" s="105"/>
       <c r="T41" s="105"/>
@@ -8697,37 +8615,37 @@
         <v>0</v>
       </c>
       <c r="V41" s="105"/>
-      <c r="W41" s="95">
+      <c r="W41" s="108">
         <v>-48</v>
       </c>
-      <c r="X41" s="96"/>
+      <c r="X41" s="109"/>
       <c r="Z41" s="34">
         <v>1250</v>
       </c>
       <c r="AA41" s="35">
         <v>1400</v>
       </c>
-      <c r="AB41" s="88"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="88"/>
-      <c r="AE41" s="88"/>
-      <c r="AF41" s="88"/>
-      <c r="AG41" s="88"/>
-      <c r="AH41" s="88"/>
-      <c r="AI41" s="88"/>
-      <c r="AJ41" s="88"/>
-      <c r="AK41" s="88"/>
-      <c r="AL41" s="88"/>
-      <c r="AM41" s="109"/>
+      <c r="AB41" s="99"/>
+      <c r="AC41" s="99"/>
+      <c r="AD41" s="99"/>
+      <c r="AE41" s="99"/>
+      <c r="AF41" s="99"/>
+      <c r="AG41" s="99"/>
+      <c r="AH41" s="99"/>
+      <c r="AI41" s="99"/>
+      <c r="AJ41" s="99"/>
+      <c r="AK41" s="99"/>
+      <c r="AL41" s="99"/>
+      <c r="AM41" s="103"/>
       <c r="AN41" s="105"/>
       <c r="AO41" s="105"/>
       <c r="AP41" s="105"/>
       <c r="AQ41" s="105"/>
       <c r="AR41" s="105"/>
-      <c r="AS41" s="95"/>
-      <c r="AT41" s="96"/>
-      <c r="AU41" s="95"/>
-      <c r="AV41" s="96"/>
+      <c r="AS41" s="108"/>
+      <c r="AT41" s="109"/>
+      <c r="AU41" s="108"/>
+      <c r="AV41" s="109"/>
     </row>
     <row r="42" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D42" s="34">
@@ -8736,52 +8654,52 @@
       <c r="E42" s="35">
         <v>1600</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="109"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="103"/>
       <c r="R42" s="105"/>
       <c r="S42" s="105"/>
       <c r="T42" s="105"/>
       <c r="U42" s="105"/>
       <c r="V42" s="105"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="98"/>
+      <c r="W42" s="110"/>
+      <c r="X42" s="111"/>
       <c r="Z42" s="34">
         <v>1400</v>
       </c>
       <c r="AA42" s="35">
         <v>1600</v>
       </c>
-      <c r="AB42" s="88"/>
-      <c r="AC42" s="88"/>
-      <c r="AD42" s="88"/>
-      <c r="AE42" s="88"/>
-      <c r="AF42" s="88"/>
-      <c r="AG42" s="88"/>
-      <c r="AH42" s="88"/>
-      <c r="AI42" s="88"/>
-      <c r="AJ42" s="88"/>
-      <c r="AK42" s="88"/>
-      <c r="AL42" s="88"/>
-      <c r="AM42" s="109"/>
+      <c r="AB42" s="99"/>
+      <c r="AC42" s="99"/>
+      <c r="AD42" s="99"/>
+      <c r="AE42" s="99"/>
+      <c r="AF42" s="99"/>
+      <c r="AG42" s="99"/>
+      <c r="AH42" s="99"/>
+      <c r="AI42" s="99"/>
+      <c r="AJ42" s="99"/>
+      <c r="AK42" s="99"/>
+      <c r="AL42" s="99"/>
+      <c r="AM42" s="103"/>
       <c r="AN42" s="105"/>
       <c r="AO42" s="105"/>
       <c r="AP42" s="105"/>
       <c r="AQ42" s="105"/>
       <c r="AR42" s="105"/>
-      <c r="AS42" s="97"/>
-      <c r="AT42" s="98"/>
-      <c r="AU42" s="97"/>
-      <c r="AV42" s="98"/>
+      <c r="AS42" s="110"/>
+      <c r="AT42" s="111"/>
+      <c r="AU42" s="110"/>
+      <c r="AV42" s="111"/>
     </row>
     <row r="43" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D43" s="34">
@@ -8790,28 +8708,28 @@
       <c r="E43" s="35">
         <v>1800</v>
       </c>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88">
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99">
         <v>430</v>
       </c>
-      <c r="K43" s="88">
+      <c r="K43" s="99">
         <v>240</v>
       </c>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88">
+      <c r="L43" s="99"/>
+      <c r="M43" s="99">
         <v>120</v>
       </c>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88">
+      <c r="N43" s="99"/>
+      <c r="O43" s="99">
         <v>32</v>
       </c>
-      <c r="P43" s="88">
+      <c r="P43" s="99">
         <v>0</v>
       </c>
-      <c r="Q43" s="109"/>
+      <c r="Q43" s="103"/>
       <c r="R43" s="105"/>
       <c r="S43" s="105"/>
       <c r="T43" s="105"/>
@@ -8819,37 +8737,37 @@
         <v>0</v>
       </c>
       <c r="V43" s="105"/>
-      <c r="W43" s="95">
+      <c r="W43" s="108">
         <v>-58</v>
       </c>
-      <c r="X43" s="96"/>
+      <c r="X43" s="109"/>
       <c r="Z43" s="34">
         <v>1600</v>
       </c>
       <c r="AA43" s="35">
         <v>1800</v>
       </c>
-      <c r="AB43" s="88"/>
-      <c r="AC43" s="88"/>
-      <c r="AD43" s="88"/>
-      <c r="AE43" s="88"/>
-      <c r="AF43" s="88"/>
-      <c r="AG43" s="88"/>
-      <c r="AH43" s="88"/>
-      <c r="AI43" s="88"/>
-      <c r="AJ43" s="88"/>
-      <c r="AK43" s="88"/>
-      <c r="AL43" s="88"/>
-      <c r="AM43" s="109"/>
+      <c r="AB43" s="99"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="99"/>
+      <c r="AE43" s="99"/>
+      <c r="AF43" s="99"/>
+      <c r="AG43" s="99"/>
+      <c r="AH43" s="99"/>
+      <c r="AI43" s="99"/>
+      <c r="AJ43" s="99"/>
+      <c r="AK43" s="99"/>
+      <c r="AL43" s="99"/>
+      <c r="AM43" s="103"/>
       <c r="AN43" s="105"/>
       <c r="AO43" s="105"/>
       <c r="AP43" s="105"/>
       <c r="AQ43" s="105"/>
       <c r="AR43" s="105"/>
-      <c r="AS43" s="95"/>
-      <c r="AT43" s="96"/>
-      <c r="AU43" s="95"/>
-      <c r="AV43" s="96"/>
+      <c r="AS43" s="108"/>
+      <c r="AT43" s="109"/>
+      <c r="AU43" s="108"/>
+      <c r="AV43" s="109"/>
     </row>
     <row r="44" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D44" s="34">
@@ -8858,52 +8776,52 @@
       <c r="E44" s="35">
         <v>2000</v>
       </c>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="109"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="103"/>
       <c r="R44" s="105"/>
       <c r="S44" s="105"/>
       <c r="T44" s="105"/>
       <c r="U44" s="105"/>
       <c r="V44" s="105"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="98"/>
+      <c r="W44" s="110"/>
+      <c r="X44" s="111"/>
       <c r="Z44" s="34">
         <v>1800</v>
       </c>
       <c r="AA44" s="35">
         <v>2000</v>
       </c>
-      <c r="AB44" s="88"/>
-      <c r="AC44" s="88"/>
-      <c r="AD44" s="88"/>
-      <c r="AE44" s="88"/>
-      <c r="AF44" s="88"/>
-      <c r="AG44" s="88"/>
-      <c r="AH44" s="88"/>
-      <c r="AI44" s="88"/>
-      <c r="AJ44" s="88"/>
-      <c r="AK44" s="88"/>
-      <c r="AL44" s="88"/>
-      <c r="AM44" s="109"/>
+      <c r="AB44" s="99"/>
+      <c r="AC44" s="99"/>
+      <c r="AD44" s="99"/>
+      <c r="AE44" s="99"/>
+      <c r="AF44" s="99"/>
+      <c r="AG44" s="99"/>
+      <c r="AH44" s="99"/>
+      <c r="AI44" s="99"/>
+      <c r="AJ44" s="99"/>
+      <c r="AK44" s="99"/>
+      <c r="AL44" s="99"/>
+      <c r="AM44" s="103"/>
       <c r="AN44" s="105"/>
       <c r="AO44" s="105"/>
       <c r="AP44" s="105"/>
       <c r="AQ44" s="105"/>
       <c r="AR44" s="105"/>
-      <c r="AS44" s="97"/>
-      <c r="AT44" s="98"/>
-      <c r="AU44" s="97"/>
-      <c r="AV44" s="98"/>
+      <c r="AS44" s="110"/>
+      <c r="AT44" s="111"/>
+      <c r="AU44" s="110"/>
+      <c r="AV44" s="111"/>
     </row>
     <row r="45" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D45" s="34">
@@ -8912,28 +8830,28 @@
       <c r="E45" s="35">
         <v>2240</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88">
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99">
         <v>480</v>
       </c>
-      <c r="K45" s="88">
+      <c r="K45" s="99">
         <v>260</v>
       </c>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88">
+      <c r="L45" s="99"/>
+      <c r="M45" s="99">
         <v>130</v>
       </c>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88">
+      <c r="N45" s="99"/>
+      <c r="O45" s="99">
         <v>34</v>
       </c>
-      <c r="P45" s="88">
+      <c r="P45" s="99">
         <v>0</v>
       </c>
-      <c r="Q45" s="109"/>
+      <c r="Q45" s="103"/>
       <c r="R45" s="105"/>
       <c r="S45" s="105"/>
       <c r="T45" s="105"/>
@@ -8941,37 +8859,37 @@
         <v>0</v>
       </c>
       <c r="V45" s="105"/>
-      <c r="W45" s="95">
+      <c r="W45" s="108">
         <v>-68</v>
       </c>
-      <c r="X45" s="96"/>
+      <c r="X45" s="109"/>
       <c r="Z45" s="34">
         <v>2000</v>
       </c>
       <c r="AA45" s="35">
         <v>2240</v>
       </c>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="88"/>
-      <c r="AG45" s="88"/>
-      <c r="AH45" s="88"/>
-      <c r="AI45" s="88"/>
-      <c r="AJ45" s="88"/>
-      <c r="AK45" s="88"/>
-      <c r="AL45" s="88"/>
-      <c r="AM45" s="109"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="99"/>
+      <c r="AE45" s="99"/>
+      <c r="AF45" s="99"/>
+      <c r="AG45" s="99"/>
+      <c r="AH45" s="99"/>
+      <c r="AI45" s="99"/>
+      <c r="AJ45" s="99"/>
+      <c r="AK45" s="99"/>
+      <c r="AL45" s="99"/>
+      <c r="AM45" s="103"/>
       <c r="AN45" s="105"/>
       <c r="AO45" s="105"/>
       <c r="AP45" s="105"/>
       <c r="AQ45" s="105"/>
       <c r="AR45" s="105"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="96"/>
-      <c r="AU45" s="95"/>
-      <c r="AV45" s="96"/>
+      <c r="AS45" s="108"/>
+      <c r="AT45" s="109"/>
+      <c r="AU45" s="108"/>
+      <c r="AV45" s="109"/>
     </row>
     <row r="46" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D46" s="34">
@@ -8980,52 +8898,52 @@
       <c r="E46" s="35">
         <v>2500</v>
       </c>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="109"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="99"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="103"/>
       <c r="R46" s="105"/>
       <c r="S46" s="105"/>
       <c r="T46" s="105"/>
       <c r="U46" s="105"/>
       <c r="V46" s="105"/>
-      <c r="W46" s="97"/>
-      <c r="X46" s="98"/>
+      <c r="W46" s="110"/>
+      <c r="X46" s="111"/>
       <c r="Z46" s="34">
         <v>2240</v>
       </c>
       <c r="AA46" s="35">
         <v>2500</v>
       </c>
-      <c r="AB46" s="88"/>
-      <c r="AC46" s="88"/>
-      <c r="AD46" s="88"/>
-      <c r="AE46" s="88"/>
-      <c r="AF46" s="88"/>
-      <c r="AG46" s="88"/>
-      <c r="AH46" s="88"/>
-      <c r="AI46" s="88"/>
-      <c r="AJ46" s="88"/>
-      <c r="AK46" s="88"/>
-      <c r="AL46" s="88"/>
-      <c r="AM46" s="109"/>
+      <c r="AB46" s="99"/>
+      <c r="AC46" s="99"/>
+      <c r="AD46" s="99"/>
+      <c r="AE46" s="99"/>
+      <c r="AF46" s="99"/>
+      <c r="AG46" s="99"/>
+      <c r="AH46" s="99"/>
+      <c r="AI46" s="99"/>
+      <c r="AJ46" s="99"/>
+      <c r="AK46" s="99"/>
+      <c r="AL46" s="99"/>
+      <c r="AM46" s="103"/>
       <c r="AN46" s="105"/>
       <c r="AO46" s="105"/>
       <c r="AP46" s="105"/>
       <c r="AQ46" s="105"/>
       <c r="AR46" s="105"/>
-      <c r="AS46" s="97"/>
-      <c r="AT46" s="98"/>
-      <c r="AU46" s="97"/>
-      <c r="AV46" s="98"/>
+      <c r="AS46" s="110"/>
+      <c r="AT46" s="111"/>
+      <c r="AU46" s="110"/>
+      <c r="AV46" s="111"/>
     </row>
     <row r="47" spans="4:48" x14ac:dyDescent="0.25">
       <c r="D47" s="34">
@@ -9034,28 +8952,28 @@
       <c r="E47" s="35">
         <v>2800</v>
       </c>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88">
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99">
         <v>520</v>
       </c>
-      <c r="K47" s="88">
+      <c r="K47" s="99">
         <v>290</v>
       </c>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88">
+      <c r="L47" s="99"/>
+      <c r="M47" s="99">
         <v>145</v>
       </c>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88">
+      <c r="N47" s="99"/>
+      <c r="O47" s="99">
         <v>38</v>
       </c>
-      <c r="P47" s="88">
+      <c r="P47" s="99">
         <v>0</v>
       </c>
-      <c r="Q47" s="109"/>
+      <c r="Q47" s="103"/>
       <c r="R47" s="105"/>
       <c r="S47" s="105"/>
       <c r="T47" s="105"/>
@@ -9063,37 +8981,37 @@
         <v>0</v>
       </c>
       <c r="V47" s="105"/>
-      <c r="W47" s="95">
+      <c r="W47" s="108">
         <v>-76</v>
       </c>
-      <c r="X47" s="96"/>
+      <c r="X47" s="109"/>
       <c r="Z47" s="34">
         <v>2500</v>
       </c>
       <c r="AA47" s="35">
         <v>2800</v>
       </c>
-      <c r="AB47" s="88"/>
-      <c r="AC47" s="88"/>
-      <c r="AD47" s="88"/>
-      <c r="AE47" s="88"/>
-      <c r="AF47" s="88"/>
-      <c r="AG47" s="88"/>
-      <c r="AH47" s="88"/>
-      <c r="AI47" s="88"/>
-      <c r="AJ47" s="88"/>
-      <c r="AK47" s="88"/>
-      <c r="AL47" s="88"/>
-      <c r="AM47" s="109"/>
+      <c r="AB47" s="99"/>
+      <c r="AC47" s="99"/>
+      <c r="AD47" s="99"/>
+      <c r="AE47" s="99"/>
+      <c r="AF47" s="99"/>
+      <c r="AG47" s="99"/>
+      <c r="AH47" s="99"/>
+      <c r="AI47" s="99"/>
+      <c r="AJ47" s="99"/>
+      <c r="AK47" s="99"/>
+      <c r="AL47" s="99"/>
+      <c r="AM47" s="103"/>
       <c r="AN47" s="105"/>
       <c r="AO47" s="105"/>
       <c r="AP47" s="105"/>
       <c r="AQ47" s="105"/>
       <c r="AR47" s="105"/>
-      <c r="AS47" s="95"/>
-      <c r="AT47" s="96"/>
-      <c r="AU47" s="95"/>
-      <c r="AV47" s="96"/>
+      <c r="AS47" s="108"/>
+      <c r="AT47" s="109"/>
+      <c r="AU47" s="108"/>
+      <c r="AV47" s="109"/>
     </row>
     <row r="48" spans="4:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="37">
@@ -9102,58 +9020,656 @@
       <c r="E48" s="38">
         <v>3150</v>
       </c>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104"/>
-      <c r="O48" s="104"/>
-      <c r="P48" s="104"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="106"/>
-      <c r="S48" s="106"/>
-      <c r="T48" s="106"/>
-      <c r="U48" s="106"/>
-      <c r="V48" s="106"/>
-      <c r="W48" s="99"/>
-      <c r="X48" s="100"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
+      <c r="N48" s="101"/>
+      <c r="O48" s="101"/>
+      <c r="P48" s="101"/>
+      <c r="Q48" s="104"/>
+      <c r="R48" s="114"/>
+      <c r="S48" s="114"/>
+      <c r="T48" s="114"/>
+      <c r="U48" s="114"/>
+      <c r="V48" s="114"/>
+      <c r="W48" s="112"/>
+      <c r="X48" s="113"/>
       <c r="Z48" s="37">
         <v>2800</v>
       </c>
       <c r="AA48" s="38">
         <v>3150</v>
       </c>
-      <c r="AB48" s="104"/>
-      <c r="AC48" s="104"/>
-      <c r="AD48" s="104"/>
-      <c r="AE48" s="104"/>
-      <c r="AF48" s="104"/>
-      <c r="AG48" s="104"/>
-      <c r="AH48" s="104"/>
-      <c r="AI48" s="104"/>
-      <c r="AJ48" s="104"/>
-      <c r="AK48" s="104"/>
-      <c r="AL48" s="104"/>
-      <c r="AM48" s="110"/>
-      <c r="AN48" s="106"/>
-      <c r="AO48" s="106"/>
-      <c r="AP48" s="106"/>
-      <c r="AQ48" s="106"/>
-      <c r="AR48" s="106"/>
-      <c r="AS48" s="99"/>
-      <c r="AT48" s="100"/>
-      <c r="AU48" s="99"/>
-      <c r="AV48" s="100"/>
+      <c r="AB48" s="101"/>
+      <c r="AC48" s="101"/>
+      <c r="AD48" s="101"/>
+      <c r="AE48" s="101"/>
+      <c r="AF48" s="101"/>
+      <c r="AG48" s="101"/>
+      <c r="AH48" s="101"/>
+      <c r="AI48" s="101"/>
+      <c r="AJ48" s="101"/>
+      <c r="AK48" s="101"/>
+      <c r="AL48" s="101"/>
+      <c r="AM48" s="104"/>
+      <c r="AN48" s="114"/>
+      <c r="AO48" s="114"/>
+      <c r="AP48" s="114"/>
+      <c r="AQ48" s="114"/>
+      <c r="AR48" s="114"/>
+      <c r="AS48" s="112"/>
+      <c r="AT48" s="113"/>
+      <c r="AU48" s="112"/>
+      <c r="AV48" s="113"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="622">
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AU39:AV40"/>
+    <mergeCell ref="AU41:AV42"/>
+    <mergeCell ref="AU43:AV44"/>
+    <mergeCell ref="AU45:AV46"/>
+    <mergeCell ref="AU47:AV48"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AB19:AB21"/>
+    <mergeCell ref="AV27:AV28"/>
+    <mergeCell ref="AV29:AV30"/>
+    <mergeCell ref="AV31:AV32"/>
+    <mergeCell ref="AU33:AV34"/>
+    <mergeCell ref="AU35:AV36"/>
+    <mergeCell ref="AU37:AV38"/>
+    <mergeCell ref="AB47:AB48"/>
+    <mergeCell ref="AN47:AN48"/>
+    <mergeCell ref="AS47:AT48"/>
+    <mergeCell ref="AV11:AV12"/>
+    <mergeCell ref="AV13:AV14"/>
+    <mergeCell ref="AV15:AV16"/>
+    <mergeCell ref="AV17:AV18"/>
+    <mergeCell ref="AV19:AV20"/>
+    <mergeCell ref="AV21:AV23"/>
+    <mergeCell ref="AV24:AV26"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AN43:AN44"/>
+    <mergeCell ref="AS43:AT44"/>
+    <mergeCell ref="AB45:AB46"/>
+    <mergeCell ref="AN45:AN46"/>
+    <mergeCell ref="AS45:AT46"/>
+    <mergeCell ref="AB39:AB40"/>
+    <mergeCell ref="AN39:AN40"/>
+    <mergeCell ref="AS39:AT40"/>
+    <mergeCell ref="AB41:AB42"/>
+    <mergeCell ref="AN41:AN42"/>
+    <mergeCell ref="AS41:AT42"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="AN35:AN36"/>
+    <mergeCell ref="AS35:AT36"/>
+    <mergeCell ref="AB37:AB38"/>
+    <mergeCell ref="AN37:AN38"/>
+    <mergeCell ref="AS37:AT38"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AN31:AN32"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AN33:AN34"/>
+    <mergeCell ref="AO47:AO48"/>
+    <mergeCell ref="AP47:AP48"/>
+    <mergeCell ref="AQ47:AQ48"/>
+    <mergeCell ref="AR47:AR48"/>
+    <mergeCell ref="AT21:AT23"/>
+    <mergeCell ref="AS19:AS20"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AN21:AN23"/>
+    <mergeCell ref="AN24:AN26"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AM8:AM48"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AD8:AD34"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AB22:AB24"/>
+    <mergeCell ref="AC22:AC24"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AT31:AT32"/>
+    <mergeCell ref="AU31:AU32"/>
+    <mergeCell ref="AC47:AC48"/>
+    <mergeCell ref="AD47:AD48"/>
+    <mergeCell ref="AE47:AE48"/>
+    <mergeCell ref="AF47:AF48"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="AH47:AH48"/>
+    <mergeCell ref="AI47:AI48"/>
+    <mergeCell ref="AJ47:AJ48"/>
+    <mergeCell ref="AK47:AK48"/>
+    <mergeCell ref="AL47:AL48"/>
+    <mergeCell ref="AC45:AC46"/>
+    <mergeCell ref="AD45:AD46"/>
+    <mergeCell ref="AE45:AE46"/>
+    <mergeCell ref="AF45:AF46"/>
+    <mergeCell ref="AG45:AG46"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="AF43:AF44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="AS33:AT34"/>
+    <mergeCell ref="AH24:AH26"/>
+    <mergeCell ref="AI24:AI26"/>
+    <mergeCell ref="AJ24:AJ26"/>
+    <mergeCell ref="AK24:AK26"/>
+    <mergeCell ref="AL24:AL26"/>
+    <mergeCell ref="AO21:AO23"/>
+    <mergeCell ref="AP21:AP23"/>
+    <mergeCell ref="AQ21:AQ23"/>
+    <mergeCell ref="AR21:AR23"/>
+    <mergeCell ref="AO24:AO26"/>
+    <mergeCell ref="AP24:AP26"/>
+    <mergeCell ref="AQ24:AQ26"/>
+    <mergeCell ref="AR24:AR26"/>
+    <mergeCell ref="AH21:AH23"/>
+    <mergeCell ref="AI21:AI23"/>
+    <mergeCell ref="AJ21:AJ23"/>
+    <mergeCell ref="AK21:AK23"/>
+    <mergeCell ref="AL21:AL23"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="AP43:AP44"/>
+    <mergeCell ref="AQ43:AQ44"/>
+    <mergeCell ref="AR43:AR44"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AJ43:AJ44"/>
+    <mergeCell ref="AK43:AK44"/>
+    <mergeCell ref="AL43:AL44"/>
+    <mergeCell ref="AO43:AO44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="AO45:AO46"/>
+    <mergeCell ref="AP45:AP46"/>
+    <mergeCell ref="AQ45:AQ46"/>
+    <mergeCell ref="AR45:AR46"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="AI45:AI46"/>
+    <mergeCell ref="AJ45:AJ46"/>
+    <mergeCell ref="AK45:AK46"/>
+    <mergeCell ref="AL45:AL46"/>
+    <mergeCell ref="AQ39:AQ40"/>
+    <mergeCell ref="AR39:AR40"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="AD41:AD42"/>
+    <mergeCell ref="AE41:AE42"/>
+    <mergeCell ref="AF41:AF42"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AJ39:AJ40"/>
+    <mergeCell ref="AK39:AK40"/>
+    <mergeCell ref="AL39:AL40"/>
+    <mergeCell ref="AO39:AO40"/>
+    <mergeCell ref="AC39:AC40"/>
+    <mergeCell ref="AD39:AD40"/>
+    <mergeCell ref="AE39:AE40"/>
+    <mergeCell ref="AF39:AF40"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AH39:AH40"/>
+    <mergeCell ref="AO41:AO42"/>
+    <mergeCell ref="AP41:AP42"/>
+    <mergeCell ref="AQ41:AQ42"/>
+    <mergeCell ref="AR41:AR42"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AJ37:AJ38"/>
+    <mergeCell ref="AK37:AK38"/>
+    <mergeCell ref="AL37:AL38"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AJ41:AJ42"/>
+    <mergeCell ref="AK41:AK42"/>
+    <mergeCell ref="AL41:AL42"/>
+    <mergeCell ref="AP39:AP40"/>
+    <mergeCell ref="AP35:AP36"/>
+    <mergeCell ref="AQ35:AQ36"/>
+    <mergeCell ref="AR35:AR36"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="AE37:AE38"/>
+    <mergeCell ref="AF37:AF38"/>
+    <mergeCell ref="AG37:AG38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AJ35:AJ36"/>
+    <mergeCell ref="AK35:AK36"/>
+    <mergeCell ref="AL35:AL36"/>
+    <mergeCell ref="AO35:AO36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE35:AE36"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AO37:AO38"/>
+    <mergeCell ref="AP37:AP38"/>
+    <mergeCell ref="AQ37:AQ38"/>
+    <mergeCell ref="AR37:AR38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AP31:AP32"/>
+    <mergeCell ref="AQ31:AQ32"/>
+    <mergeCell ref="AR31:AR32"/>
+    <mergeCell ref="AS31:AS32"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AE33:AE34"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="AK31:AK32"/>
+    <mergeCell ref="AL31:AL32"/>
+    <mergeCell ref="AO31:AO32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="AO33:AO34"/>
+    <mergeCell ref="AP33:AP34"/>
+    <mergeCell ref="AQ33:AQ34"/>
+    <mergeCell ref="AR33:AR34"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="AK33:AK34"/>
+    <mergeCell ref="AL33:AL34"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AO27:AO28"/>
+    <mergeCell ref="AP27:AP28"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="AI27:AI28"/>
+    <mergeCell ref="AJ27:AJ28"/>
+    <mergeCell ref="AK27:AK28"/>
+    <mergeCell ref="AL27:AL28"/>
+    <mergeCell ref="AQ19:AQ20"/>
+    <mergeCell ref="AR19:AR20"/>
+    <mergeCell ref="AP29:AP30"/>
+    <mergeCell ref="AQ29:AQ30"/>
+    <mergeCell ref="AR29:AR30"/>
+    <mergeCell ref="AS29:AS30"/>
+    <mergeCell ref="AT29:AT30"/>
+    <mergeCell ref="AU29:AU30"/>
+    <mergeCell ref="AU27:AU28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AS27:AS28"/>
+    <mergeCell ref="AT27:AT28"/>
+    <mergeCell ref="AU19:AU20"/>
+    <mergeCell ref="AP19:AP20"/>
+    <mergeCell ref="AU21:AU23"/>
+    <mergeCell ref="AS21:AS23"/>
+    <mergeCell ref="AS24:AS26"/>
+    <mergeCell ref="AT24:AT26"/>
+    <mergeCell ref="AU24:AU26"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="AT15:AT16"/>
+    <mergeCell ref="AU15:AU16"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AI17:AI18"/>
+    <mergeCell ref="AJ17:AJ18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AP15:AP16"/>
+    <mergeCell ref="AQ15:AQ16"/>
+    <mergeCell ref="AR15:AR16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AU17:AU18"/>
+    <mergeCell ref="AO17:AO18"/>
+    <mergeCell ref="AP17:AP18"/>
+    <mergeCell ref="AQ17:AQ18"/>
+    <mergeCell ref="AR17:AR18"/>
+    <mergeCell ref="AS17:AS18"/>
+    <mergeCell ref="AT17:AT18"/>
+    <mergeCell ref="AN15:AN16"/>
+    <mergeCell ref="AN17:AN18"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="AU11:AU12"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AO11:AO12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AT13:AT14"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AP13:AP14"/>
+    <mergeCell ref="W35:X36"/>
+    <mergeCell ref="W37:X38"/>
+    <mergeCell ref="W39:X40"/>
+    <mergeCell ref="W41:X42"/>
+    <mergeCell ref="W43:X44"/>
+    <mergeCell ref="W45:X46"/>
+    <mergeCell ref="W47:X48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="W33:X34"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="V24:V26"/>
+    <mergeCell ref="W24:W26"/>
+    <mergeCell ref="X24:X26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="W21:W23"/>
+    <mergeCell ref="X21:X23"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="Q8:Q48"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F4:X4"/>
     <mergeCell ref="F5:Q5"/>
@@ -9178,604 +9694,6 @@
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="Q8:Q48"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="W21:W23"/>
-    <mergeCell ref="X21:X23"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="V24:V26"/>
-    <mergeCell ref="W24:W26"/>
-    <mergeCell ref="X24:X26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W33:X34"/>
-    <mergeCell ref="W35:X36"/>
-    <mergeCell ref="W37:X38"/>
-    <mergeCell ref="W39:X40"/>
-    <mergeCell ref="W41:X42"/>
-    <mergeCell ref="W43:X44"/>
-    <mergeCell ref="W45:X46"/>
-    <mergeCell ref="W47:X48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="T45:T46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="AU11:AU12"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AO11:AO12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="AI11:AI12"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AT13:AT14"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AP13:AP14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="AT15:AT16"/>
-    <mergeCell ref="AU15:AU16"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AI17:AI18"/>
-    <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AO15:AO16"/>
-    <mergeCell ref="AP15:AP16"/>
-    <mergeCell ref="AQ15:AQ16"/>
-    <mergeCell ref="AR15:AR16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AU17:AU18"/>
-    <mergeCell ref="AO17:AO18"/>
-    <mergeCell ref="AP17:AP18"/>
-    <mergeCell ref="AQ17:AQ18"/>
-    <mergeCell ref="AR17:AR18"/>
-    <mergeCell ref="AS17:AS18"/>
-    <mergeCell ref="AT17:AT18"/>
-    <mergeCell ref="AQ19:AQ20"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="AP29:AP30"/>
-    <mergeCell ref="AQ29:AQ30"/>
-    <mergeCell ref="AR29:AR30"/>
-    <mergeCell ref="AS29:AS30"/>
-    <mergeCell ref="AT29:AT30"/>
-    <mergeCell ref="AU29:AU30"/>
-    <mergeCell ref="AU27:AU28"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AO27:AO28"/>
-    <mergeCell ref="AP27:AP28"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AS27:AS28"/>
-    <mergeCell ref="AT27:AT28"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="AI27:AI28"/>
-    <mergeCell ref="AJ27:AJ28"/>
-    <mergeCell ref="AK27:AK28"/>
-    <mergeCell ref="AL27:AL28"/>
-    <mergeCell ref="AP31:AP32"/>
-    <mergeCell ref="AQ31:AQ32"/>
-    <mergeCell ref="AR31:AR32"/>
-    <mergeCell ref="AS31:AS32"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AE33:AE34"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AJ31:AJ32"/>
-    <mergeCell ref="AK31:AK32"/>
-    <mergeCell ref="AL31:AL32"/>
-    <mergeCell ref="AO31:AO32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="AO33:AO34"/>
-    <mergeCell ref="AP33:AP34"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AR33:AR34"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AL33:AL34"/>
-    <mergeCell ref="AP35:AP36"/>
-    <mergeCell ref="AQ35:AQ36"/>
-    <mergeCell ref="AR35:AR36"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="AE37:AE38"/>
-    <mergeCell ref="AF37:AF38"/>
-    <mergeCell ref="AG37:AG38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AJ35:AJ36"/>
-    <mergeCell ref="AK35:AK36"/>
-    <mergeCell ref="AL35:AL36"/>
-    <mergeCell ref="AO35:AO36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE35:AE36"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="AG35:AG36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AO37:AO38"/>
-    <mergeCell ref="AP37:AP38"/>
-    <mergeCell ref="AQ37:AQ38"/>
-    <mergeCell ref="AR37:AR38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AJ37:AJ38"/>
-    <mergeCell ref="AK37:AK38"/>
-    <mergeCell ref="AL37:AL38"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AJ41:AJ42"/>
-    <mergeCell ref="AK41:AK42"/>
-    <mergeCell ref="AL41:AL42"/>
-    <mergeCell ref="AP39:AP40"/>
-    <mergeCell ref="AQ39:AQ40"/>
-    <mergeCell ref="AR39:AR40"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="AD41:AD42"/>
-    <mergeCell ref="AE41:AE42"/>
-    <mergeCell ref="AF41:AF42"/>
-    <mergeCell ref="AG41:AG42"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AJ39:AJ40"/>
-    <mergeCell ref="AK39:AK40"/>
-    <mergeCell ref="AL39:AL40"/>
-    <mergeCell ref="AO39:AO40"/>
-    <mergeCell ref="AC39:AC40"/>
-    <mergeCell ref="AD39:AD40"/>
-    <mergeCell ref="AE39:AE40"/>
-    <mergeCell ref="AF39:AF40"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AH39:AH40"/>
-    <mergeCell ref="AN15:AN16"/>
-    <mergeCell ref="AN17:AN18"/>
-    <mergeCell ref="AO45:AO46"/>
-    <mergeCell ref="AP45:AP46"/>
-    <mergeCell ref="AQ45:AQ46"/>
-    <mergeCell ref="AR45:AR46"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="AI45:AI46"/>
-    <mergeCell ref="AJ45:AJ46"/>
-    <mergeCell ref="AK45:AK46"/>
-    <mergeCell ref="AL45:AL46"/>
-    <mergeCell ref="AP43:AP44"/>
-    <mergeCell ref="AQ43:AQ44"/>
-    <mergeCell ref="AR43:AR44"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AJ43:AJ44"/>
-    <mergeCell ref="AK43:AK44"/>
-    <mergeCell ref="AL43:AL44"/>
-    <mergeCell ref="AO43:AO44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="AO41:AO42"/>
-    <mergeCell ref="AP41:AP42"/>
-    <mergeCell ref="AQ41:AQ42"/>
-    <mergeCell ref="AR41:AR42"/>
-    <mergeCell ref="AU19:AU20"/>
-    <mergeCell ref="AH21:AH23"/>
-    <mergeCell ref="AI21:AI23"/>
-    <mergeCell ref="AJ21:AJ23"/>
-    <mergeCell ref="AK21:AK23"/>
-    <mergeCell ref="AL21:AL23"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="AU21:AU23"/>
-    <mergeCell ref="AH24:AH26"/>
-    <mergeCell ref="AI24:AI26"/>
-    <mergeCell ref="AJ24:AJ26"/>
-    <mergeCell ref="AK24:AK26"/>
-    <mergeCell ref="AL24:AL26"/>
-    <mergeCell ref="AO21:AO23"/>
-    <mergeCell ref="AP21:AP23"/>
-    <mergeCell ref="AQ21:AQ23"/>
-    <mergeCell ref="AR21:AR23"/>
-    <mergeCell ref="AS21:AS23"/>
-    <mergeCell ref="AO24:AO26"/>
-    <mergeCell ref="AP24:AP26"/>
-    <mergeCell ref="AQ24:AQ26"/>
-    <mergeCell ref="AR24:AR26"/>
-    <mergeCell ref="AS24:AS26"/>
-    <mergeCell ref="AT24:AT26"/>
-    <mergeCell ref="AU24:AU26"/>
-    <mergeCell ref="AT31:AT32"/>
-    <mergeCell ref="AU31:AU32"/>
-    <mergeCell ref="AC47:AC48"/>
-    <mergeCell ref="AD47:AD48"/>
-    <mergeCell ref="AE47:AE48"/>
-    <mergeCell ref="AF47:AF48"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="AH47:AH48"/>
-    <mergeCell ref="AI47:AI48"/>
-    <mergeCell ref="AJ47:AJ48"/>
-    <mergeCell ref="AK47:AK48"/>
-    <mergeCell ref="AL47:AL48"/>
-    <mergeCell ref="AC45:AC46"/>
-    <mergeCell ref="AD45:AD46"/>
-    <mergeCell ref="AE45:AE46"/>
-    <mergeCell ref="AF45:AF46"/>
-    <mergeCell ref="AG45:AG46"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="AE43:AE44"/>
-    <mergeCell ref="AF43:AF44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="AS33:AT34"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AN21:AN23"/>
-    <mergeCell ref="AN24:AN26"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AM8:AM48"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="AO47:AO48"/>
-    <mergeCell ref="AP47:AP48"/>
-    <mergeCell ref="AQ47:AQ48"/>
-    <mergeCell ref="AR47:AR48"/>
-    <mergeCell ref="AT21:AT23"/>
-    <mergeCell ref="AS19:AS20"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AV24:AV26"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AN43:AN44"/>
-    <mergeCell ref="AS43:AT44"/>
-    <mergeCell ref="AB45:AB46"/>
-    <mergeCell ref="AN45:AN46"/>
-    <mergeCell ref="AS45:AT46"/>
-    <mergeCell ref="AB39:AB40"/>
-    <mergeCell ref="AN39:AN40"/>
-    <mergeCell ref="AS39:AT40"/>
-    <mergeCell ref="AB41:AB42"/>
-    <mergeCell ref="AN41:AN42"/>
-    <mergeCell ref="AS41:AT42"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="AN35:AN36"/>
-    <mergeCell ref="AS35:AT36"/>
-    <mergeCell ref="AB37:AB38"/>
-    <mergeCell ref="AN37:AN38"/>
-    <mergeCell ref="AS37:AT38"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AN31:AN32"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AN33:AN34"/>
-    <mergeCell ref="AU39:AV40"/>
-    <mergeCell ref="AU41:AV42"/>
-    <mergeCell ref="AU43:AV44"/>
-    <mergeCell ref="AU45:AV46"/>
-    <mergeCell ref="AU47:AV48"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AB19:AB21"/>
-    <mergeCell ref="AV27:AV28"/>
-    <mergeCell ref="AV29:AV30"/>
-    <mergeCell ref="AV31:AV32"/>
-    <mergeCell ref="AU33:AV34"/>
-    <mergeCell ref="AU35:AV36"/>
-    <mergeCell ref="AU37:AV38"/>
-    <mergeCell ref="AB47:AB48"/>
-    <mergeCell ref="AN47:AN48"/>
-    <mergeCell ref="AS47:AT48"/>
-    <mergeCell ref="AV11:AV12"/>
-    <mergeCell ref="AV13:AV14"/>
-    <mergeCell ref="AV15:AV16"/>
-    <mergeCell ref="AV17:AV18"/>
-    <mergeCell ref="AV19:AV20"/>
-    <mergeCell ref="AV21:AV23"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AD8:AD34"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="AB22:AB24"/>
-    <mergeCell ref="AC22:AC24"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AE11:AE12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -9799,72 +9717,72 @@
   <sheetData>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
     </row>
     <row r="4" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="123" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132" t="s">
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
     </row>
     <row r="5" spans="2:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134" t="s">
+      <c r="C5" s="124"/>
+      <c r="D5" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
       <c r="P5" s="30" t="s">
         <v>249</v>
       </c>
@@ -9922,15 +9840,15 @@
       <c r="O6" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="101" t="s">
+      <c r="P6" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="116"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
@@ -9972,7 +9890,7 @@
       <c r="N7" s="48">
         <v>0</v>
       </c>
-      <c r="O7" s="129"/>
+      <c r="O7" s="132"/>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
@@ -10021,7 +9939,7 @@
       <c r="N8" s="36">
         <v>0</v>
       </c>
-      <c r="O8" s="130"/>
+      <c r="O8" s="133"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -10070,7 +9988,7 @@
       <c r="N9" s="36">
         <v>0</v>
       </c>
-      <c r="O9" s="130"/>
+      <c r="O9" s="133"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="36"/>
@@ -10086,47 +10004,47 @@
       <c r="C10" s="35">
         <v>14</v>
       </c>
-      <c r="D10" s="121">
+      <c r="D10" s="129">
         <v>-290</v>
       </c>
-      <c r="E10" s="121">
+      <c r="E10" s="129">
         <v>-150</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="99">
         <v>-95</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="99">
         <v>-70</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="99">
         <v>-50</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="99">
         <v>-32</v>
       </c>
-      <c r="J10" s="88">
+      <c r="J10" s="99">
         <v>-23</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="99">
         <v>-16</v>
       </c>
-      <c r="L10" s="88">
+      <c r="L10" s="99">
         <v>-10</v>
       </c>
-      <c r="M10" s="128">
+      <c r="M10" s="131">
         <v>-6</v>
       </c>
-      <c r="N10" s="88">
+      <c r="N10" s="99">
         <v>0</v>
       </c>
-      <c r="O10" s="130"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
       <c r="U10" s="127"/>
-      <c r="V10" s="126"/>
+      <c r="V10" s="128"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
@@ -10135,25 +10053,25 @@
       <c r="C11" s="35">
         <v>18</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="126"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="128"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="34">
@@ -10162,47 +10080,47 @@
       <c r="C12" s="35">
         <v>24</v>
       </c>
-      <c r="D12" s="121">
+      <c r="D12" s="129">
         <v>-300</v>
       </c>
-      <c r="E12" s="121">
+      <c r="E12" s="129">
         <v>-160</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="99">
         <v>-110</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="99">
         <v>-85</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="99">
         <v>-65</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="99">
         <v>-40</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="99">
         <v>-25</v>
       </c>
-      <c r="K12" s="88">
+      <c r="K12" s="99">
         <v>-20</v>
       </c>
-      <c r="L12" s="88">
+      <c r="L12" s="99">
         <v>-12</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="99">
         <v>-7</v>
       </c>
-      <c r="N12" s="88">
+      <c r="N12" s="99">
         <v>0</v>
       </c>
-      <c r="O12" s="130"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
       <c r="S12" s="127"/>
-      <c r="T12" s="88"/>
+      <c r="T12" s="99"/>
       <c r="U12" s="127"/>
-      <c r="V12" s="126"/>
+      <c r="V12" s="128"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
@@ -10211,25 +10129,25 @@
       <c r="C13" s="35">
         <v>30</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="126"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="128"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="34">
@@ -10247,38 +10165,38 @@
       <c r="F14" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="99">
         <v>-100</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="99">
         <v>-80</v>
       </c>
-      <c r="I14" s="88">
+      <c r="I14" s="99">
         <v>-50</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J14" s="99">
         <v>-35</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="99">
         <v>-25</v>
       </c>
-      <c r="L14" s="88">
+      <c r="L14" s="99">
         <v>-15</v>
       </c>
-      <c r="M14" s="88">
+      <c r="M14" s="99">
         <v>-9</v>
       </c>
-      <c r="N14" s="88">
+      <c r="N14" s="99">
         <v>0</v>
       </c>
-      <c r="O14" s="130"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
       <c r="S14" s="127"/>
-      <c r="T14" s="88"/>
+      <c r="T14" s="99"/>
       <c r="U14" s="127"/>
-      <c r="V14" s="126"/>
+      <c r="V14" s="128"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="34">
@@ -10296,22 +10214,22 @@
       <c r="F15" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="126"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="128"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="34">
@@ -10329,32 +10247,32 @@
       <c r="F16" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88">
+      <c r="G16" s="99"/>
+      <c r="H16" s="99">
         <v>-100</v>
       </c>
-      <c r="I16" s="88">
+      <c r="I16" s="99">
         <v>-60</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88">
+      <c r="J16" s="99"/>
+      <c r="K16" s="99">
         <v>-30</v>
       </c>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88">
+      <c r="L16" s="99"/>
+      <c r="M16" s="99">
         <v>-10</v>
       </c>
-      <c r="N16" s="88">
+      <c r="N16" s="99">
         <v>0</v>
       </c>
-      <c r="O16" s="130"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
       <c r="S16" s="127"/>
-      <c r="T16" s="88"/>
+      <c r="T16" s="99"/>
       <c r="U16" s="127"/>
-      <c r="V16" s="126"/>
+      <c r="V16" s="128"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
@@ -10372,22 +10290,22 @@
       <c r="F17" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="126"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="128"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
@@ -10405,32 +10323,32 @@
       <c r="F18" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88">
+      <c r="G18" s="99"/>
+      <c r="H18" s="99">
         <v>-120</v>
       </c>
-      <c r="I18" s="88">
+      <c r="I18" s="99">
         <v>-72</v>
       </c>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88">
+      <c r="J18" s="99"/>
+      <c r="K18" s="99">
         <v>-36</v>
       </c>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88">
+      <c r="L18" s="99"/>
+      <c r="M18" s="99">
         <v>-12</v>
       </c>
-      <c r="N18" s="88">
+      <c r="N18" s="99">
         <v>0</v>
       </c>
-      <c r="O18" s="130"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
       <c r="S18" s="127"/>
-      <c r="T18" s="88"/>
+      <c r="T18" s="99"/>
       <c r="U18" s="127"/>
-      <c r="V18" s="126"/>
+      <c r="V18" s="128"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
@@ -10448,22 +10366,22 @@
       <c r="F19" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="126"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="128"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="34">
@@ -10481,32 +10399,32 @@
       <c r="F20" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88">
+      <c r="G20" s="99"/>
+      <c r="H20" s="99">
         <v>-145</v>
       </c>
-      <c r="I20" s="88">
+      <c r="I20" s="99">
         <v>-85</v>
       </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88">
+      <c r="J20" s="99"/>
+      <c r="K20" s="99">
         <v>-43</v>
       </c>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88">
+      <c r="L20" s="99"/>
+      <c r="M20" s="99">
         <v>-14</v>
       </c>
-      <c r="N20" s="88">
+      <c r="N20" s="99">
         <v>0</v>
       </c>
-      <c r="O20" s="130"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
       <c r="U20" s="127"/>
-      <c r="V20" s="126"/>
+      <c r="V20" s="128"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="34">
@@ -10524,22 +10442,22 @@
       <c r="F21" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="126"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="128"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="34">
@@ -10557,22 +10475,22 @@
       <c r="F22" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="126"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="133"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="128"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="34">
@@ -10590,32 +10508,32 @@
       <c r="F23" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88">
+      <c r="G23" s="99"/>
+      <c r="H23" s="99">
         <v>-170</v>
       </c>
-      <c r="I23" s="88">
+      <c r="I23" s="99">
         <v>-100</v>
       </c>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88">
+      <c r="J23" s="99"/>
+      <c r="K23" s="99">
         <v>-50</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88">
+      <c r="L23" s="99"/>
+      <c r="M23" s="99">
         <v>-15</v>
       </c>
-      <c r="N23" s="88">
+      <c r="N23" s="99">
         <v>0</v>
       </c>
-      <c r="O23" s="130"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
       <c r="S23" s="127"/>
-      <c r="T23" s="88"/>
+      <c r="T23" s="99"/>
       <c r="U23" s="127"/>
-      <c r="V23" s="126"/>
+      <c r="V23" s="128"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
@@ -10633,22 +10551,22 @@
       <c r="F24" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="126"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="128"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="34">
@@ -10666,22 +10584,22 @@
       <c r="F25" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="126"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="128"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="34">
@@ -10699,32 +10617,32 @@
       <c r="F26" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88">
+      <c r="G26" s="99"/>
+      <c r="H26" s="99">
         <v>-190</v>
       </c>
-      <c r="I26" s="88">
+      <c r="I26" s="99">
         <v>-110</v>
       </c>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88">
+      <c r="J26" s="99"/>
+      <c r="K26" s="99">
         <v>-56</v>
       </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88">
+      <c r="L26" s="99"/>
+      <c r="M26" s="99">
         <v>-17</v>
       </c>
-      <c r="N26" s="88">
+      <c r="N26" s="99">
         <v>0</v>
       </c>
-      <c r="O26" s="130"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
       <c r="U26" s="127"/>
-      <c r="V26" s="126"/>
+      <c r="V26" s="128"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
@@ -10742,22 +10660,22 @@
       <c r="F27" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="126"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="128"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
@@ -10775,32 +10693,32 @@
       <c r="F28" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88">
+      <c r="G28" s="99"/>
+      <c r="H28" s="99">
         <v>-210</v>
       </c>
-      <c r="I28" s="88">
+      <c r="I28" s="99">
         <v>-125</v>
       </c>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88">
+      <c r="J28" s="99"/>
+      <c r="K28" s="99">
         <v>-62</v>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88">
+      <c r="L28" s="99"/>
+      <c r="M28" s="99">
         <v>-18</v>
       </c>
-      <c r="N28" s="88">
+      <c r="N28" s="99">
         <v>0</v>
       </c>
-      <c r="O28" s="130"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
       <c r="U28" s="127"/>
-      <c r="V28" s="126"/>
+      <c r="V28" s="128"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="34">
@@ -10818,22 +10736,22 @@
       <c r="F29" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="126"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="128"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="34">
@@ -10851,32 +10769,32 @@
       <c r="F30" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88">
+      <c r="G30" s="99"/>
+      <c r="H30" s="99">
         <v>-230</v>
       </c>
-      <c r="I30" s="88">
+      <c r="I30" s="99">
         <v>-135</v>
       </c>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88">
+      <c r="J30" s="99"/>
+      <c r="K30" s="99">
         <v>-68</v>
       </c>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88">
+      <c r="L30" s="99"/>
+      <c r="M30" s="99">
         <v>-20</v>
       </c>
-      <c r="N30" s="88">
+      <c r="N30" s="99">
         <v>0</v>
       </c>
-      <c r="O30" s="130"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
+      <c r="O30" s="133"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
       <c r="S30" s="127"/>
-      <c r="T30" s="88"/>
+      <c r="T30" s="99"/>
       <c r="U30" s="127"/>
-      <c r="V30" s="126"/>
+      <c r="V30" s="128"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="34">
@@ -10894,22 +10812,22 @@
       <c r="F31" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="126"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="128"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="34">
@@ -10918,35 +10836,35 @@
       <c r="C32" s="35">
         <v>560</v>
       </c>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88">
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99">
         <v>-260</v>
       </c>
-      <c r="I32" s="88">
+      <c r="I32" s="99">
         <v>-145</v>
       </c>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88">
+      <c r="J32" s="99"/>
+      <c r="K32" s="99">
         <v>-76</v>
       </c>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88">
+      <c r="L32" s="99"/>
+      <c r="M32" s="99">
         <v>-22</v>
       </c>
-      <c r="N32" s="88">
+      <c r="N32" s="99">
         <v>0</v>
       </c>
-      <c r="O32" s="130"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="118"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="136"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="34">
@@ -10955,25 +10873,25 @@
       <c r="C33" s="35">
         <v>630</v>
       </c>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="124"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="138"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="34">
@@ -10982,35 +10900,35 @@
       <c r="C34" s="35">
         <v>710</v>
       </c>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88">
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99">
         <v>-290</v>
       </c>
-      <c r="I34" s="88">
+      <c r="I34" s="99">
         <v>-160</v>
       </c>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88">
+      <c r="J34" s="99"/>
+      <c r="K34" s="99">
         <v>-80</v>
       </c>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88">
+      <c r="L34" s="99"/>
+      <c r="M34" s="99">
         <v>-24</v>
       </c>
-      <c r="N34" s="88">
+      <c r="N34" s="99">
         <v>0</v>
       </c>
-      <c r="O34" s="130"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="118"/>
+      <c r="O34" s="133"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="135"/>
+      <c r="V34" s="136"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="34">
@@ -11019,25 +10937,25 @@
       <c r="C35" s="35">
         <v>800</v>
       </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="123"/>
-      <c r="V35" s="124"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="133"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="137"/>
+      <c r="V35" s="138"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="34">
@@ -11046,35 +10964,35 @@
       <c r="C36" s="35">
         <v>900</v>
       </c>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88">
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99">
         <v>-320</v>
       </c>
-      <c r="I36" s="88">
+      <c r="I36" s="99">
         <v>-170</v>
       </c>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88">
+      <c r="J36" s="99"/>
+      <c r="K36" s="99">
         <v>-86</v>
       </c>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88">
+      <c r="L36" s="99"/>
+      <c r="M36" s="99">
         <v>-26</v>
       </c>
-      <c r="N36" s="88">
+      <c r="N36" s="99">
         <v>0</v>
       </c>
-      <c r="O36" s="130"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="118"/>
+      <c r="O36" s="133"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="135"/>
+      <c r="V36" s="136"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="34">
@@ -11083,25 +11001,25 @@
       <c r="C37" s="35">
         <v>1000</v>
       </c>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="130"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="123"/>
-      <c r="V37" s="124"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="138"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="34">
@@ -11110,35 +11028,35 @@
       <c r="C38" s="35">
         <v>1120</v>
       </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88">
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99">
         <v>-350</v>
       </c>
-      <c r="I38" s="88">
+      <c r="I38" s="99">
         <v>-195</v>
       </c>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88">
+      <c r="J38" s="99"/>
+      <c r="K38" s="99">
         <v>-98</v>
       </c>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88">
+      <c r="L38" s="99"/>
+      <c r="M38" s="99">
         <v>-28</v>
       </c>
-      <c r="N38" s="88">
+      <c r="N38" s="99">
         <v>0</v>
       </c>
-      <c r="O38" s="130"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="118"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="99"/>
+      <c r="S38" s="99"/>
+      <c r="T38" s="99"/>
+      <c r="U38" s="135"/>
+      <c r="V38" s="136"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="34">
@@ -11147,25 +11065,25 @@
       <c r="C39" s="35">
         <v>1250</v>
       </c>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="123"/>
-      <c r="V39" s="124"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="99"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="137"/>
+      <c r="V39" s="138"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="34">
@@ -11174,35 +11092,35 @@
       <c r="C40" s="35">
         <v>1400</v>
       </c>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88">
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99">
         <v>-390</v>
       </c>
-      <c r="I40" s="88">
+      <c r="I40" s="99">
         <v>-220</v>
       </c>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88">
+      <c r="J40" s="99"/>
+      <c r="K40" s="99">
         <v>-110</v>
       </c>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88">
+      <c r="L40" s="99"/>
+      <c r="M40" s="99">
         <v>-30</v>
       </c>
-      <c r="N40" s="88">
+      <c r="N40" s="99">
         <v>0</v>
       </c>
-      <c r="O40" s="130"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="117"/>
-      <c r="V40" s="118"/>
+      <c r="O40" s="133"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="135"/>
+      <c r="V40" s="136"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="34">
@@ -11211,25 +11129,25 @@
       <c r="C41" s="35">
         <v>1600</v>
       </c>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="123"/>
-      <c r="V41" s="124"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="133"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="99"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="137"/>
+      <c r="V41" s="138"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="34">
@@ -11238,35 +11156,35 @@
       <c r="C42" s="35">
         <v>1800</v>
       </c>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88">
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99">
         <v>-430</v>
       </c>
-      <c r="I42" s="88">
+      <c r="I42" s="99">
         <v>-240</v>
       </c>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88">
+      <c r="J42" s="99"/>
+      <c r="K42" s="99">
         <v>-120</v>
       </c>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88">
+      <c r="L42" s="99"/>
+      <c r="M42" s="99">
         <v>-32</v>
       </c>
-      <c r="N42" s="88">
+      <c r="N42" s="99">
         <v>0</v>
       </c>
-      <c r="O42" s="130"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="118"/>
+      <c r="O42" s="133"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="135"/>
+      <c r="V42" s="136"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="34">
@@ -11275,25 +11193,25 @@
       <c r="C43" s="35">
         <v>2000</v>
       </c>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="123"/>
-      <c r="V43" s="124"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="133"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="137"/>
+      <c r="V43" s="138"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
@@ -11302,35 +11220,35 @@
       <c r="C44" s="35">
         <v>2240</v>
       </c>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88">
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99">
         <v>-480</v>
       </c>
-      <c r="I44" s="88">
+      <c r="I44" s="99">
         <v>-260</v>
       </c>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88">
+      <c r="J44" s="99"/>
+      <c r="K44" s="99">
         <v>-130</v>
       </c>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88">
+      <c r="L44" s="99"/>
+      <c r="M44" s="99">
         <v>-34</v>
       </c>
-      <c r="N44" s="88">
+      <c r="N44" s="99">
         <v>0</v>
       </c>
-      <c r="O44" s="130"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="117"/>
-      <c r="V44" s="118"/>
+      <c r="O44" s="133"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="135"/>
+      <c r="V44" s="136"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="34">
@@ -11339,25 +11257,25 @@
       <c r="C45" s="35">
         <v>2500</v>
       </c>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="123"/>
-      <c r="V45" s="124"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="133"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="137"/>
+      <c r="V45" s="138"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="34">
@@ -11366,35 +11284,35 @@
       <c r="C46" s="35">
         <v>2800</v>
       </c>
-      <c r="D46" s="121"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88">
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99">
         <v>-520</v>
       </c>
-      <c r="I46" s="88">
+      <c r="I46" s="99">
         <v>-290</v>
       </c>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88">
+      <c r="J46" s="99"/>
+      <c r="K46" s="99">
         <v>-145</v>
       </c>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88">
+      <c r="L46" s="99"/>
+      <c r="M46" s="99">
         <v>-38</v>
       </c>
-      <c r="N46" s="88">
+      <c r="N46" s="99">
         <v>0</v>
       </c>
-      <c r="O46" s="130"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="117"/>
-      <c r="V46" s="118"/>
+      <c r="O46" s="133"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="99"/>
+      <c r="R46" s="99"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="135"/>
+      <c r="V46" s="136"/>
     </row>
     <row r="47" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="37">
@@ -11403,148 +11321,185 @@
       <c r="C47" s="38">
         <v>3150</v>
       </c>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104"/>
-      <c r="N47" s="104"/>
-      <c r="O47" s="131"/>
-      <c r="P47" s="104"/>
-      <c r="Q47" s="104"/>
-      <c r="R47" s="104"/>
-      <c r="S47" s="104"/>
-      <c r="T47" s="104"/>
-      <c r="U47" s="119"/>
-      <c r="V47" s="120"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
+      <c r="O47" s="134"/>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="101"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="101"/>
+      <c r="U47" s="140"/>
+      <c r="V47" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="301">
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="D3:V3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="O7:O47"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="V20:V22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="U46:V47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="U44:V45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="U40:V41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="U42:V43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:V39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:V35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:V37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:V33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N28:N29"/>
     <mergeCell ref="T26:T27"/>
     <mergeCell ref="U26:U27"/>
     <mergeCell ref="V26:V27"/>
@@ -11569,163 +11524,126 @@
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="U28:U29"/>
     <mergeCell ref="V28:V29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:V33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:V35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:V37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:V39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:V41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="U42:V43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="U44:V45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="U46:V47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="V20:V22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D3:V3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="O7:O47"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
